--- a/translations.xlsx
+++ b/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="306">
   <si>
     <t xml:space="preserve">KEY</t>
   </si>
@@ -433,7 +433,7 @@
     <t xml:space="preserve">Sperren / Entsperren</t>
   </si>
   <si>
-    <t xml:space="preserve">bloccare / sbloccare</t>
+    <t xml:space="preserve">Bloccare / Sbloccare</t>
   </si>
   <si>
     <t xml:space="preserve">Bloquer / Débloquer</t>
@@ -625,10 +625,7 @@
     <t xml:space="preserve">Quick Tour</t>
   </si>
   <si>
-    <t xml:space="preserve">Giro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tour</t>
+    <t xml:space="preserve">Quick Tour (giro)</t>
   </si>
   <si>
     <t xml:space="preserve">region-settings</t>
@@ -751,7 +748,7 @@
     <t xml:space="preserve">Paramètres</t>
   </si>
   <si>
-    <t xml:space="preserve">settings-success-</t>
+    <t xml:space="preserve">settings-stored-success</t>
   </si>
   <si>
     <t xml:space="preserve">Settings successfully stored!</t>
@@ -763,7 +760,7 @@
     <t xml:space="preserve">La regulazione è stata salvata di successo!</t>
   </si>
   <si>
-    <t xml:space="preserve">Les paramètres ont étés sauvgardés aves succès!</t>
+    <t xml:space="preserve">Les paramètres ont étés sauvegardés aves succès!</t>
   </si>
   <si>
     <t xml:space="preserve">success</t>
@@ -832,7 +829,7 @@
     <t xml:space="preserve">Al</t>
   </si>
   <si>
-    <t xml:space="preserve">Jusqu‘au</t>
+    <t xml:space="preserve">au</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -874,7 +871,7 @@
     <t xml:space="preserve">Valido dal</t>
   </si>
   <si>
-    <t xml:space="preserve">Valable a partir du</t>
+    <t xml:space="preserve">Valable du</t>
   </si>
   <si>
     <t xml:space="preserve">version</t>
@@ -904,16 +901,13 @@
     <t xml:space="preserve">show-confirmations</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirmation messages</t>
+    <t xml:space="preserve">Confirmations</t>
   </si>
   <si>
     <t xml:space="preserve">Bestätigungsmeldungen</t>
   </si>
   <si>
-    <t xml:space="preserve">Messagi di confirmazione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Messages de confirmation</t>
+    <t xml:space="preserve">Confirmazioni</t>
   </si>
   <si>
     <t xml:space="preserve">show-notifications</t>
@@ -1134,8 +1128,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E64" activeCellId="0" sqref="E64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -2079,7 +2073,7 @@
       </c>
       <c r="H29" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A29,""" : """,D29,""",")</f>
-        <v>"lock-unlock" : "bloccare / sbloccare",</v>
+        <v>"lock-unlock" : "Bloccare / Sbloccare",</v>
       </c>
       <c r="I29" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A29,""" : """,E29,""",")</f>
@@ -2562,7 +2556,7 @@
         <v>201</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,B44,""",")</f>
@@ -2574,28 +2568,28 @@
       </c>
       <c r="H44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,D44,""",")</f>
-        <v>"quick-tour" : "Giro",</v>
+        <v>"quick-tour" : "Quick Tour (giro)",</v>
       </c>
       <c r="I44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,E44,""",")</f>
-        <v>"quick-tour" : "Tour",</v>
+        <v>"quick-tour" : "Quick Tour",</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,B45,""",")</f>
@@ -2616,19 +2610,19 @@
     </row>
     <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="F46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,B46,""",")</f>
@@ -2649,19 +2643,19 @@
     </row>
     <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="F47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,B47,""",")</f>
@@ -2682,19 +2676,19 @@
     </row>
     <row r="48" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="F48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,B48,""",")</f>
@@ -2715,19 +2709,19 @@
     </row>
     <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="F49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,B49,""",")</f>
@@ -2748,19 +2742,19 @@
     </row>
     <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="F50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,B50,""",")</f>
@@ -2781,19 +2775,19 @@
     </row>
     <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="F51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,B51,""",")</f>
@@ -2814,19 +2808,19 @@
     </row>
     <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,B52,""",")</f>
@@ -2847,52 +2841,52 @@
     </row>
     <row r="53" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,B53,""",")</f>
-        <v>"settings-success-" : "Settings successfully stored!",</v>
+        <v>"settings-stored-success" : "Settings successfully stored!",</v>
       </c>
       <c r="G53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,C53,""",")</f>
-        <v>"settings-success-" : "Die Einstellungen wurden erfolgreich gespeichert!",</v>
+        <v>"settings-stored-success" : "Die Einstellungen wurden erfolgreich gespeichert!",</v>
       </c>
       <c r="H53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,D53,""",")</f>
-        <v>"settings-success-" : "La regulazione è stata salvata di successo!",</v>
+        <v>"settings-stored-success" : "La regulazione è stata salvata di successo!",</v>
       </c>
       <c r="I53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,E53,""",")</f>
-        <v>"settings-success-" : "Les paramètres ont étés sauvgardés aves succès!",</v>
+        <v>"settings-stored-success" : "Les paramètres ont étés sauvegardés aves succès!",</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="F54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,B54,""",")</f>
@@ -2913,19 +2907,19 @@
     </row>
     <row r="55" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="F55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,B55,""",")</f>
@@ -2946,19 +2940,19 @@
     </row>
     <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="F56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,B56,""",")</f>
@@ -2979,19 +2973,19 @@
     </row>
     <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="F57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,B57,""",")</f>
@@ -3012,19 +3006,19 @@
     </row>
     <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="F58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,B58,""",")</f>
@@ -3040,24 +3034,24 @@
       </c>
       <c r="I58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,E58,""",")</f>
-        <v>"to" : "Jusqu‘au",</v>
+        <v>"to" : "au",</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,B59,""",")</f>
@@ -3078,19 +3072,19 @@
     </row>
     <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="F60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,B60,""",")</f>
@@ -3111,19 +3105,19 @@
     </row>
     <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>284</v>
       </c>
       <c r="F61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,B61,""",")</f>
@@ -3139,24 +3133,24 @@
       </c>
       <c r="I61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,E61,""",")</f>
-        <v>"valid-from" : "Valable a partir du",</v>
+        <v>"valid-from" : "Valable du",</v>
       </c>
     </row>
     <row r="62" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,B62,""",")</f>
@@ -3177,19 +3171,19 @@
     </row>
     <row r="63" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="F63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,B63,""",")</f>
@@ -3210,23 +3204,23 @@
     </row>
     <row r="64" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,B64,""",")</f>
-        <v>"show-confirmations" : "Confirmation messages",</v>
+        <v>"show-confirmations" : "Confirmations",</v>
       </c>
       <c r="G64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,C64,""",")</f>
@@ -3234,28 +3228,28 @@
       </c>
       <c r="H64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,D64,""",")</f>
-        <v>"show-confirmations" : "Messagi di confirmazione",</v>
+        <v>"show-confirmations" : "Confirmazioni",</v>
       </c>
       <c r="I64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,E64,""",")</f>
-        <v>"show-confirmations" : "Messages de confirmation",</v>
+        <v>"show-confirmations" : "Confirmations",</v>
       </c>
     </row>
     <row r="65" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,B65,""",")</f>
@@ -3276,19 +3270,19 @@
     </row>
     <row r="66" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="F66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,B66,""",")</f>
@@ -3309,16 +3303,16 @@
     </row>
     <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/translations.xlsx
+++ b/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="326">
   <si>
     <t xml:space="preserve">KEY</t>
   </si>
@@ -574,6 +574,21 @@
     <t xml:space="preserve">Commander</t>
   </si>
   <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parola d'accesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mot de passe</t>
+  </si>
+  <si>
     <t xml:space="preserve">order-qr-payment</t>
   </si>
   <si>
@@ -920,6 +935,105 @@
   </si>
   <si>
     <t xml:space="preserve">Notificazioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter-username-pwd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Please enter username </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'test' and password 'test'!</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte Benutzername 'test' und Passwort 'test' eingeben!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Pregasi immetere il nome dell utente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'test' e la parola d‘accesso 'test'!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Entrez le nom d‘utilisateur </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'test' et le mot de passe 'test', s.v.p.!</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">start-the-tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start the tour…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginne die Tour…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incomincia il giro…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commencez le tour…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benutzername</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome utente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom d'utilisateur</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -947,7 +1061,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -978,6 +1092,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1128,8 +1248,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -2443,7 +2563,7 @@
         <v>"order" : "Commander",</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>184</v>
       </c>
@@ -2461,22 +2581,22 @@
       </c>
       <c r="F41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,B41,""",")</f>
-        <v>"order-qr-payment" : "To order a QR payment, please provide account and amount!",</v>
+        <v>"password" : "Password",</v>
       </c>
       <c r="G41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,C41,""",")</f>
-        <v>"order-qr-payment" : "Konto und Betrag müssen ausgefüllt sein, damit eine QR-Zahlung bestellt werden kann!",</v>
+        <v>"password" : "Passwort",</v>
       </c>
       <c r="H41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,D41,""",")</f>
-        <v>"order-qr-payment" : "Si prega di mettere a disposizione il conto e il montante per potere ordinare il pagamento QR! ",</v>
+        <v>"password" : "Parola d'accesso",</v>
       </c>
       <c r="I41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,E41,""",")</f>
-        <v>"order-qr-payment" : "Compte et montant doivent être remplis avant de commander un paiement QR!",</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"password" : "Mot de passe",</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>189</v>
       </c>
@@ -2494,19 +2614,19 @@
       </c>
       <c r="F42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,B42,""",")</f>
-        <v>"qr-payment" : "QR Payment",</v>
+        <v>"order-qr-payment" : "To order a QR payment, please provide account and amount!",</v>
       </c>
       <c r="G42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,C42,""",")</f>
-        <v>"qr-payment" : "QR-Zahlung",</v>
+        <v>"order-qr-payment" : "Konto und Betrag müssen ausgefüllt sein, damit eine QR-Zahlung bestellt werden kann!",</v>
       </c>
       <c r="H42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,D42,""",")</f>
-        <v>"qr-payment" : "Pagamento QR",</v>
+        <v>"order-qr-payment" : "Si prega di mettere a disposizione il conto e il montante per potere ordinare il pagamento QR! ",</v>
       </c>
       <c r="I42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,E42,""",")</f>
-        <v>"qr-payment" : "Paiement QR",</v>
+        <v>"order-qr-payment" : "Compte et montant doivent être remplis avant de commander un paiement QR!",</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,19 +2647,19 @@
       </c>
       <c r="F43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,B43,""",")</f>
-        <v>"qr-payment-order-success" : "QR payment successfully ordered!",</v>
+        <v>"qr-payment" : "QR Payment",</v>
       </c>
       <c r="G43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,C43,""",")</f>
-        <v>"qr-payment-order-success" : "QR-Zahlung erfolgreich bestellt!",</v>
+        <v>"qr-payment" : "QR-Zahlung",</v>
       </c>
       <c r="H43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,D43,""",")</f>
-        <v>"qr-payment-order-success" : "Pagemento QR è stato ordinato con successo.",</v>
+        <v>"qr-payment" : "Pagamento QR",</v>
       </c>
       <c r="I43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,E43,""",")</f>
-        <v>"qr-payment-order-success" : "Le paiement QR a été commandé avec succès!",</v>
+        <v>"qr-payment" : "Paiement QR",</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,62 +2670,62 @@
         <v>200</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,B44,""",")</f>
-        <v>"quick-tour" : "Quick Tour",</v>
+        <v>"qr-payment-order-success" : "QR payment successfully ordered!",</v>
       </c>
       <c r="G44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,C44,""",")</f>
-        <v>"quick-tour" : "Quick Tour",</v>
+        <v>"qr-payment-order-success" : "QR-Zahlung erfolgreich bestellt!",</v>
       </c>
       <c r="H44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,D44,""",")</f>
-        <v>"quick-tour" : "Quick Tour (giro)",</v>
+        <v>"qr-payment-order-success" : "Pagemento QR è stato ordinato con successo.",</v>
       </c>
       <c r="I44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,E44,""",")</f>
-        <v>"quick-tour" : "Quick Tour",</v>
+        <v>"qr-payment-order-success" : "Le paiement QR a été commandé avec succès!",</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="F45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,B45,""",")</f>
-        <v>"region-settings" : "Region Settings",</v>
+        <v>"quick-tour" : "Quick Tour",</v>
       </c>
       <c r="G45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,C45,""",")</f>
-        <v>"region-settings" : "Regionenfreischaltung",</v>
+        <v>"quick-tour" : "Quick Tour",</v>
       </c>
       <c r="H45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,D45,""",")</f>
-        <v>"region-settings" : "Selezione di regioni",</v>
+        <v>"quick-tour" : "Quick Tour (giro)",</v>
       </c>
       <c r="I45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,E45,""",")</f>
-        <v>"region-settings" : "Sélection de régions",</v>
+        <v>"quick-tour" : "Quick Tour",</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,19 +2746,19 @@
       </c>
       <c r="F46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,B46,""",")</f>
-        <v>"request-new-pin" : "Request New PIN",</v>
+        <v>"region-settings" : "Region Settings",</v>
       </c>
       <c r="G46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,C46,""",")</f>
-        <v>"request-new-pin" : "Neuen PIN beantragen",</v>
+        <v>"region-settings" : "Regionenfreischaltung",</v>
       </c>
       <c r="H46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,D46,""",")</f>
-        <v>"request-new-pin" : "Richiedere un nuovo PIN",</v>
+        <v>"region-settings" : "Selezione di regioni",</v>
       </c>
       <c r="I46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,E46,""",")</f>
-        <v>"request-new-pin" : "Demander nouveau PIN",</v>
+        <v>"region-settings" : "Sélection de régions",</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,22 +2779,22 @@
       </c>
       <c r="F47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,B47,""",")</f>
-        <v>"reset" : "Reset",</v>
+        <v>"request-new-pin" : "Request New PIN",</v>
       </c>
       <c r="G47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,C47,""",")</f>
-        <v>"reset" : "Zurücksetzen",</v>
+        <v>"request-new-pin" : "Neuen PIN beantragen",</v>
       </c>
       <c r="H47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,D47,""",")</f>
-        <v>"reset" : "Resettare",</v>
+        <v>"request-new-pin" : "Richiedere un nuovo PIN",</v>
       </c>
       <c r="I47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,E47,""",")</f>
-        <v>"reset" : "Réinitialiser",</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"request-new-pin" : "Demander nouveau PIN",</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>217</v>
       </c>
@@ -2692,22 +2812,22 @@
       </c>
       <c r="F48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,B48,""",")</f>
-        <v>"run-the-tour-" : "Run the Quick-Tour at any time later by selecting it from the menu.",</v>
+        <v>"reset" : "Reset",</v>
       </c>
       <c r="G48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,C48,""",")</f>
-        <v>"run-the-tour-" : "Sie können die Quick-Tour jederzeit später ausführen, indem Sie sie im Menü auswählen.",</v>
+        <v>"reset" : "Zurücksetzen",</v>
       </c>
       <c r="H48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,D48,""",")</f>
-        <v>"run-the-tour-" : "Si può sempre prendere il Quick-Tour più tardi, scegliandolo dal menu.",</v>
+        <v>"reset" : "Resettare",</v>
       </c>
       <c r="I48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,E48,""",")</f>
-        <v>"run-the-tour-" : "Vour pouvez exécuter le Quick-Tour plus tard si vous le choisissez du menu.",</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"reset" : "Réinitialiser",</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>222</v>
       </c>
@@ -2725,19 +2845,19 @@
       </c>
       <c r="F49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,B49,""",")</f>
-        <v>"save" : "Save",</v>
+        <v>"run-the-tour-" : "Run the Quick-Tour at any time later by selecting it from the menu.",</v>
       </c>
       <c r="G49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,C49,""",")</f>
-        <v>"save" : "Speichern",</v>
+        <v>"run-the-tour-" : "Sie können die Quick-Tour jederzeit später ausführen, indem Sie sie im Menü auswählen.",</v>
       </c>
       <c r="H49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,D49,""",")</f>
-        <v>"save" : "Salvare",</v>
+        <v>"run-the-tour-" : "Si può sempre prendere il Quick-Tour più tardi, scegliandolo dal menu.",</v>
       </c>
       <c r="I49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,E49,""",")</f>
-        <v>"save" : "Sauvegarder",</v>
+        <v>"run-the-tour-" : "Vour pouvez exécuter le Quick-Tour plus tard si vous le choisissez du menu.",</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,19 +2878,19 @@
       </c>
       <c r="F50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,B50,""",")</f>
-        <v>"select-lang" : "Select Language",</v>
+        <v>"save" : "Save",</v>
       </c>
       <c r="G50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,C50,""",")</f>
-        <v>"select-lang" : "Sprache wählen",</v>
+        <v>"save" : "Speichern",</v>
       </c>
       <c r="H50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,D50,""",")</f>
-        <v>"select-lang" : "Scegli la lingua",</v>
+        <v>"save" : "Salvare",</v>
       </c>
       <c r="I50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,E50,""",")</f>
-        <v>"select-lang" : "Choisissez la langue",</v>
+        <v>"save" : "Sauvegarder",</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,19 +2911,19 @@
       </c>
       <c r="F51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,B51,""",")</f>
-        <v>"send" : "Send",</v>
+        <v>"select-lang" : "Select Language",</v>
       </c>
       <c r="G51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,C51,""",")</f>
-        <v>"send" : "Abschicken",</v>
+        <v>"select-lang" : "Sprache wählen",</v>
       </c>
       <c r="H51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,D51,""",")</f>
-        <v>"send" : "Spedire",</v>
+        <v>"select-lang" : "Scegli la lingua",</v>
       </c>
       <c r="I51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,E51,""",")</f>
-        <v>"send" : "Envoyer",</v>
+        <v>"select-lang" : "Choisissez la langue",</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,19 +2944,19 @@
       </c>
       <c r="F52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,B52,""",")</f>
-        <v>"settings" : "Settings",</v>
+        <v>"send" : "Send",</v>
       </c>
       <c r="G52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,C52,""",")</f>
-        <v>"settings" : "Einstellungen",</v>
+        <v>"send" : "Abschicken",</v>
       </c>
       <c r="H52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,D52,""",")</f>
-        <v>"settings" : "Regolazione",</v>
+        <v>"send" : "Spedire",</v>
       </c>
       <c r="I52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,E52,""",")</f>
-        <v>"settings" : "Paramètres",</v>
+        <v>"send" : "Envoyer",</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,19 +2977,19 @@
       </c>
       <c r="F53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,B53,""",")</f>
-        <v>"settings-stored-success" : "Settings successfully stored!",</v>
+        <v>"settings" : "Settings",</v>
       </c>
       <c r="G53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,C53,""",")</f>
-        <v>"settings-stored-success" : "Die Einstellungen wurden erfolgreich gespeichert!",</v>
+        <v>"settings" : "Einstellungen",</v>
       </c>
       <c r="H53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,D53,""",")</f>
-        <v>"settings-stored-success" : "La regulazione è stata salvata di successo!",</v>
+        <v>"settings" : "Regolazione",</v>
       </c>
       <c r="I53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,E53,""",")</f>
-        <v>"settings-stored-success" : "Les paramètres ont étés sauvegardés aves succès!",</v>
+        <v>"settings" : "Paramètres",</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,22 +3010,22 @@
       </c>
       <c r="F54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,B54,""",")</f>
-        <v>"success" : "Success",</v>
+        <v>"settings-stored-success" : "Settings successfully stored!",</v>
       </c>
       <c r="G54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,C54,""",")</f>
-        <v>"success" : "Erfolg",</v>
+        <v>"settings-stored-success" : "Die Einstellungen wurden erfolgreich gespeichert!",</v>
       </c>
       <c r="H54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,D54,""",")</f>
-        <v>"success" : "Successo",</v>
+        <v>"settings-stored-success" : "La regulazione è stata salvata di successo!",</v>
       </c>
       <c r="I54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,E54,""",")</f>
-        <v>"success" : "Succès",</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"settings-stored-success" : "Les paramètres ont étés sauvegardés aves succès!",</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>252</v>
       </c>
@@ -2923,19 +3043,19 @@
       </c>
       <c r="F55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,B55,""",")</f>
-        <v>"swipe-through-the-tour-" : "Swipe through the Quick-Tour to get an overview of MX-Banklets' features.",</v>
+        <v>"success" : "Success",</v>
       </c>
       <c r="G55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,C55,""",")</f>
-        <v>"swipe-through-the-tour-" : "Wischen Sie durch die Quick-Tour, um einen Überblick über die Features der MX-Banklets zu bekommen. ",</v>
+        <v>"success" : "Erfolg",</v>
       </c>
       <c r="H55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,D55,""",")</f>
-        <v>"swipe-through-the-tour-" : "Passa a traverso il Quick-Tour per ottenere uno sguardo d'insieme delle funzioni die MX-Banklets.",</v>
+        <v>"success" : "Successo",</v>
       </c>
       <c r="I55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,E55,""",")</f>
-        <v>"swipe-through-the-tour-" : "Passez par le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
+        <v>"success" : "Succès",</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,22 +3076,22 @@
       </c>
       <c r="F56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,B56,""",")</f>
-        <v>"take-the-tour-" : "Take the Quick-Tour to get an overview of MX-Banklets' features.",</v>
+        <v>"swipe-through-the-tour-" : "Swipe through the Quick-Tour to get an overview of MX-Banklets' features.",</v>
       </c>
       <c r="G56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,C56,""",")</f>
-        <v>"take-the-tour-" : "Nehmen Sie die Quick-Tour, um einen ersten Überblick über die Features von MX-Banklets zu erhalten.",</v>
+        <v>"swipe-through-the-tour-" : "Wischen Sie durch die Quick-Tour, um einen Überblick über die Features der MX-Banklets zu bekommen. ",</v>
       </c>
       <c r="H56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,D56,""",")</f>
-        <v>"take-the-tour-" : "Prenda il Quick-Tour per ottenere un primo sguardo sulle funzioni die MX-Banklets.",</v>
+        <v>"swipe-through-the-tour-" : "Passa a traverso il Quick-Tour per ottenere uno sguardo d'insieme delle funzioni die MX-Banklets.",</v>
       </c>
       <c r="I56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,E56,""",")</f>
-        <v>"take-the-tour-" : "Prenez le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"swipe-through-the-tour-" : "Passez par le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>262</v>
       </c>
@@ -2979,67 +3099,67 @@
         <v>263</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,B57,""",")</f>
-        <v>"text" : "Text",</v>
+        <v>"take-the-tour-" : "Take the Quick-Tour to get an overview of MX-Banklets' features.",</v>
       </c>
       <c r="G57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,C57,""",")</f>
-        <v>"text" : "Text",</v>
+        <v>"take-the-tour-" : "Nehmen Sie die Quick-Tour, um einen ersten Überblick über die Features von MX-Banklets zu erhalten.",</v>
       </c>
       <c r="H57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,D57,""",")</f>
-        <v>"text" : "Denominazione",</v>
+        <v>"take-the-tour-" : "Prenda il Quick-Tour per ottenere un primo sguardo sulle funzioni die MX-Banklets.",</v>
       </c>
       <c r="I57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,E57,""",")</f>
-        <v>"text" : "Texte",</v>
+        <v>"take-the-tour-" : "Prenez le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,B58,""",")</f>
-        <v>"to" : "to",</v>
+        <v>"text" : "Text",</v>
       </c>
       <c r="G58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,C58,""",")</f>
-        <v>"to" : "bis",</v>
+        <v>"text" : "Text",</v>
       </c>
       <c r="H58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,D58,""",")</f>
-        <v>"to" : "Al",</v>
+        <v>"text" : "Denominazione",</v>
       </c>
       <c r="I58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,E58,""",")</f>
-        <v>"to" : "au",</v>
+        <v>"text" : "Texte",</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>271</v>
@@ -3051,56 +3171,56 @@
         <v>273</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,B59,""",")</f>
-        <v>"type" : "Type",</v>
+        <v>"to" : "to",</v>
       </c>
       <c r="G59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,C59,""",")</f>
-        <v>"type" : "Typ",</v>
+        <v>"to" : "bis",</v>
       </c>
       <c r="H59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,D59,""",")</f>
-        <v>"type" : "Tipo",</v>
+        <v>"to" : "Al",</v>
       </c>
       <c r="I59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,E59,""",")</f>
-        <v>"type" : "Type",</v>
+        <v>"to" : "au",</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,B60,""",")</f>
-        <v>"unlock-card" : "Unlock Card",</v>
+        <v>"type" : "Type",</v>
       </c>
       <c r="G60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,C60,""",")</f>
-        <v>"unlock-card" : "Sperrung aufheben",</v>
+        <v>"type" : "Typ",</v>
       </c>
       <c r="H60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,D60,""",")</f>
-        <v>"unlock-card" : "Sbloccare la carta",</v>
+        <v>"type" : "Tipo",</v>
       </c>
       <c r="I60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,E60,""",")</f>
-        <v>"unlock-card" : "Débloquer la carte",</v>
+        <v>"type" : "Type",</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,27 +3236,27 @@
       <c r="D61" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>283</v>
       </c>
       <c r="F61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,B61,""",")</f>
-        <v>"valid-from" : "Valid From",</v>
+        <v>"unlock-card" : "Unlock Card",</v>
       </c>
       <c r="G61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,C61,""",")</f>
-        <v>"valid-from" : "Gültig von",</v>
+        <v>"unlock-card" : "Sperrung aufheben",</v>
       </c>
       <c r="H61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,D61,""",")</f>
-        <v>"valid-from" : "Valido dal",</v>
+        <v>"unlock-card" : "Sbloccare la carta",</v>
       </c>
       <c r="I61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,E61,""",")</f>
-        <v>"valid-from" : "Valable du",</v>
-      </c>
-    </row>
-    <row r="62" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"unlock-card" : "Débloquer la carte",</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>284</v>
       </c>
@@ -3144,62 +3264,62 @@
         <v>285</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>288</v>
       </c>
       <c r="F62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,B62,""",")</f>
-        <v>"version" : "Version",</v>
+        <v>"valid-from" : "Valid From",</v>
       </c>
       <c r="G62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,C62,""",")</f>
-        <v>"version" : "Version",</v>
+        <v>"valid-from" : "Gültig von",</v>
       </c>
       <c r="H62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,D62,""",")</f>
-        <v>"version" : "Versione",</v>
+        <v>"valid-from" : "Valido dal",</v>
       </c>
       <c r="I62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,E62,""",")</f>
-        <v>"version" : "Version",</v>
+        <v>"valid-from" : "Valable du",</v>
       </c>
     </row>
     <row r="63" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="F63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,B63,""",")</f>
-        <v>"warning" : "Warning",</v>
+        <v>"version" : "Version",</v>
       </c>
       <c r="G63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,C63,""",")</f>
-        <v>"warning" : "Achtung",</v>
+        <v>"version" : "Version",</v>
       </c>
       <c r="H63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,D63,""",")</f>
-        <v>"warning" : "Attenzione",</v>
+        <v>"version" : "Versione",</v>
       </c>
       <c r="I63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,E63,""",")</f>
-        <v>"warning" : "Attention",</v>
+        <v>"version" : "Version",</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3216,110 +3336,238 @@
         <v>295</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,B64,""",")</f>
-        <v>"show-confirmations" : "Confirmations",</v>
+        <v>"warning" : "Warning",</v>
       </c>
       <c r="G64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,C64,""",")</f>
-        <v>"show-confirmations" : "Bestätigungsmeldungen",</v>
+        <v>"warning" : "Achtung",</v>
       </c>
       <c r="H64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,D64,""",")</f>
-        <v>"show-confirmations" : "Confirmazioni",</v>
+        <v>"warning" : "Attenzione",</v>
       </c>
       <c r="I64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,E64,""",")</f>
-        <v>"show-confirmations" : "Confirmations",</v>
+        <v>"warning" : "Attention",</v>
       </c>
     </row>
     <row r="65" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="F65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,B65,""",")</f>
-        <v>"show-notifications" : "Notifications",</v>
+        <v>"show-confirmations" : "Confirmations",</v>
       </c>
       <c r="G65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,C65,""",")</f>
-        <v>"show-notifications" : "Notifizierungen",</v>
+        <v>"show-confirmations" : "Bestätigungsmeldungen",</v>
       </c>
       <c r="H65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,D65,""",")</f>
-        <v>"show-notifications" : "Notificazioni",</v>
+        <v>"show-confirmations" : "Confirmazioni",</v>
       </c>
       <c r="I65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,E65,""",")</f>
-        <v>"show-notifications" : "Notifications",</v>
+        <v>"show-confirmations" : "Confirmations",</v>
       </c>
     </row>
     <row r="66" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="F66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,B66,""",")</f>
-        <v>"yes" : "Yes",</v>
+        <v>"show-notifications" : "Notifications",</v>
       </c>
       <c r="G66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,C66,""",")</f>
-        <v>"yes" : "Ja",</v>
+        <v>"show-notifications" : "Notifizierungen",</v>
       </c>
       <c r="H66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,D66,""",")</f>
-        <v>"yes" : "Sì",</v>
+        <v>"show-notifications" : "Notificazioni",</v>
       </c>
       <c r="I66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,E66,""",")</f>
+        <v>"show-notifications" : "Notifications",</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A67,""" : """,B67,""",")</f>
+        <v>"enter-username-pwd" : "Please enter username 'test' and password 'test'!",</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A67,""" : """,C67,""",")</f>
+        <v>"enter-username-pwd" : "Bitte Benutzername 'test' und Passwort 'test' eingeben!",</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A67,""" : """,D67,""",")</f>
+        <v>"enter-username-pwd" : "Pregasi immetere il nome dell utente 'test' e la parola d‘accesso 'test'!",</v>
+      </c>
+      <c r="I67" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A67,""" : """,E67,""",")</f>
+        <v>"enter-username-pwd" : "Entrez le nom d‘utilisateur 'test' et le mot de passe 'test', s.v.p.!",</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A68,""" : """,B68,""",")</f>
+        <v>"start-the-tour" : "Start the tour…",</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A68,""" : """,C68,""",")</f>
+        <v>"start-the-tour" : "Beginne die Tour…",</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A68,""" : """,D68,""",")</f>
+        <v>"start-the-tour" : "Incomincia il giro…",</v>
+      </c>
+      <c r="I68" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A68,""" : """,E68,""",")</f>
+        <v>"start-the-tour" : "Commencez le tour…",</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A69,""" : """,B69,""",")</f>
+        <v>"username" : "Username",</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A69,""" : """,C69,""",")</f>
+        <v>"username" : "Benutzername",</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A69,""" : """,D69,""",")</f>
+        <v>"username" : "Nome utente",</v>
+      </c>
+      <c r="I69" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A69,""" : """,E69,""",")</f>
+        <v>"username" : "Nom d'utilisateur",</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A70,""" : """,B70,""",")</f>
+        <v>"yes" : "Yes",</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A70,""" : """,C70,""",")</f>
+        <v>"yes" : "Ja",</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A70,""" : """,D70,""",")</f>
+        <v>"yes" : "Sì",</v>
+      </c>
+      <c r="I70" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A70,""" : """,E70,""",")</f>
         <v>"yes" : "Oui",</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="68" s="4" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" s="4" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/translations.xlsx
+++ b/translations.xlsx
@@ -607,31 +607,67 @@
     <t xml:space="preserve">qr-payment</t>
   </si>
   <si>
-    <t xml:space="preserve">QR Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QR-Zahlung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pagamento QR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paiement QR</t>
+    <t xml:space="preserve">QR Cash Withdrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QR-Bargeldbezug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riferimento contante QR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrait de liquide QR</t>
   </si>
   <si>
     <t xml:space="preserve">qr-payment-order-success</t>
   </si>
   <si>
-    <t xml:space="preserve">QR payment successfully ordered!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QR-Zahlung erfolgreich bestellt!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pagemento QR è stato ordinato con successo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le paiement QR a été commandé avec succès!</t>
+    <t xml:space="preserve">QR cash withdrawal successfully ordered!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QR-Bargeldbezug erfolgreich bestellt!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Riferimento contante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> QR è stato ordinato con successo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Retrait de liquide </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">QR a été commandé avec succès!</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">quick-tour</t>
@@ -1148,7 +1184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1158,6 +1194,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1248,8 +1288,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -2647,19 +2687,19 @@
       </c>
       <c r="F43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,B43,""",")</f>
-        <v>"qr-payment" : "QR Payment",</v>
+        <v>"qr-payment" : "QR Cash Withdrawal",</v>
       </c>
       <c r="G43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,C43,""",")</f>
-        <v>"qr-payment" : "QR-Zahlung",</v>
+        <v>"qr-payment" : "QR-Bargeldbezug",</v>
       </c>
       <c r="H43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,D43,""",")</f>
-        <v>"qr-payment" : "Pagamento QR",</v>
+        <v>"qr-payment" : "Riferimento contante QR",</v>
       </c>
       <c r="I43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,E43,""",")</f>
-        <v>"qr-payment" : "Paiement QR",</v>
+        <v>"qr-payment" : "Retrait de liquide QR",</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,27 +2712,27 @@
       <c r="C44" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>203</v>
       </c>
       <c r="F44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,B44,""",")</f>
-        <v>"qr-payment-order-success" : "QR payment successfully ordered!",</v>
+        <v>"qr-payment-order-success" : "QR cash withdrawal successfully ordered!",</v>
       </c>
       <c r="G44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,C44,""",")</f>
-        <v>"qr-payment-order-success" : "QR-Zahlung erfolgreich bestellt!",</v>
+        <v>"qr-payment-order-success" : "QR-Bargeldbezug erfolgreich bestellt!",</v>
       </c>
       <c r="H44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,D44,""",")</f>
-        <v>"qr-payment-order-success" : "Pagemento QR è stato ordinato con successo.",</v>
+        <v>"qr-payment-order-success" : "Riferimento contante QR è stato ordinato con successo.",</v>
       </c>
       <c r="I44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,E44,""",")</f>
-        <v>"qr-payment-order-success" : "Le paiement QR a été commandé avec succès!",</v>
+        <v>"qr-payment-order-success" : "Retrait de liquide QR a été commandé avec succès!",</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,7 +3329,7 @@
         <v>"valid-from" : "Valable du",</v>
       </c>
     </row>
-    <row r="63" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>289</v>
       </c>
@@ -3322,7 +3362,7 @@
         <v>"version" : "Version",</v>
       </c>
     </row>
-    <row r="64" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>292</v>
       </c>
@@ -3355,7 +3395,7 @@
         <v>"warning" : "Attention",</v>
       </c>
     </row>
-    <row r="65" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>297</v>
       </c>
@@ -3388,7 +3428,7 @@
         <v>"show-confirmations" : "Confirmations",</v>
       </c>
     </row>
-    <row r="66" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>301</v>
       </c>
@@ -3421,7 +3461,7 @@
         <v>"show-notifications" : "Notifications",</v>
       </c>
     </row>
-    <row r="67" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>305</v>
       </c>
@@ -3454,7 +3494,7 @@
         <v>"enter-username-pwd" : "Entrez le nom d‘utilisateur 'test' et le mot de passe 'test', s.v.p.!",</v>
       </c>
     </row>
-    <row r="68" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>310</v>
       </c>
@@ -3487,7 +3527,7 @@
         <v>"start-the-tour" : "Commencez le tour…",</v>
       </c>
     </row>
-    <row r="69" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>315</v>
       </c>
@@ -3520,7 +3560,7 @@
         <v>"username" : "Nom d'utilisateur",</v>
       </c>
     </row>
-    <row r="70" s="3" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>320</v>
       </c>
@@ -3567,7 +3607,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="72" s="4" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" s="5" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/translations.xlsx
+++ b/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="336">
   <si>
     <t xml:space="preserve">KEY</t>
   </si>
@@ -379,6 +379,21 @@
     <t xml:space="preserve">Travailler</t>
   </si>
   <si>
+    <t xml:space="preserve">enter-username-pwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter username 'test' and password 'test'!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte Benutzername 'test' und Passwort 'test' eingeben!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregasi immetere il nome dell utente 'test' e la parola d‘accesso 'test'!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrez le nom d‘utilisateur 'test' et le mot de passe 'test', s.v.p.!</t>
+  </si>
+  <si>
     <t xml:space="preserve">error</t>
   </si>
   <si>
@@ -394,6 +409,15 @@
     <t xml:space="preserve">Erreur</t>
   </si>
   <si>
+    <t xml:space="preserve">info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informazione</t>
+  </si>
+  <si>
     <t xml:space="preserve">liechtenstein</t>
   </si>
   <si>
@@ -439,6 +463,12 @@
     <t xml:space="preserve">Bloquer / Débloquer</t>
   </si>
   <si>
+    <t xml:space="preserve">login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login</t>
+  </si>
+  <si>
     <t xml:space="preserve">logout</t>
   </si>
   <si>
@@ -574,6 +604,21 @@
     <t xml:space="preserve">Commander</t>
   </si>
   <si>
+    <t xml:space="preserve">order-qr-payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To order a QR payment, please provide account and amount!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konto und Betrag müssen ausgefüllt sein, damit eine QR-Zahlung bestellt werden kann!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si prega di mettere a disposizione il conto e il montante per potere ordinare il pagamento QR! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compte et montant doivent être remplis avant de commander un paiement QR!</t>
+  </si>
+  <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
@@ -589,21 +634,6 @@
     <t xml:space="preserve">Mot de passe</t>
   </si>
   <si>
-    <t xml:space="preserve">order-qr-payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To order a QR payment, please provide account and amount!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konto und Betrag müssen ausgefüllt sein, damit eine QR-Zahlung bestellt werden kann!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si prega di mettere a disposizione il conto e il montante per potere ordinare il pagamento QR! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compte et montant doivent être remplis avant de commander un paiement QR!</t>
-  </si>
-  <si>
     <t xml:space="preserve">qr-payment</t>
   </si>
   <si>
@@ -628,46 +658,10 @@
     <t xml:space="preserve">QR-Bargeldbezug erfolgreich bestellt!</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Riferimento contante</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> QR è stato ordinato con successo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Retrait de liquide </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">QR a été commandé avec succès!</t>
-    </r>
+    <t xml:space="preserve">Riferimento contante QR è stato ordinato con successo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrait de liquide QR a été commandé avec succès!</t>
   </si>
   <si>
     <t xml:space="preserve">quick-tour</t>
@@ -694,6 +688,21 @@
     <t xml:space="preserve">Sélection de régions</t>
   </si>
   <si>
+    <t xml:space="preserve">register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enregistrer</t>
+  </si>
+  <si>
     <t xml:space="preserve">request-new-pin</t>
   </si>
   <si>
@@ -814,6 +823,45 @@
     <t xml:space="preserve">Les paramètres ont étés sauvegardés aves succès!</t>
   </si>
   <si>
+    <t xml:space="preserve">show-confirmations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bestätigungsmeldungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmazioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show-notifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notifizierungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificazioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start-the-tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start the tour…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginne die Tour…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incomincia il giro…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commencez le tour…</t>
+  </si>
+  <si>
     <t xml:space="preserve">success</t>
   </si>
   <si>
@@ -910,6 +958,21 @@
     <t xml:space="preserve">Débloquer la carte</t>
   </si>
   <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benutzername</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome utente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom d'utilisateur</t>
+  </si>
+  <si>
     <t xml:space="preserve">valid-from</t>
   </si>
   <si>
@@ -947,129 +1010,6 @@
   </si>
   <si>
     <t xml:space="preserve">Attention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show-confirmations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bestätigungsmeldungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmazioni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show-notifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notifizierungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notificazioni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter-username-pwd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Please enter username </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'test' and password 'test'!</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitte Benutzername 'test' und Passwort 'test' eingeben!</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Pregasi immetere il nome dell utente </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'test' e la parola d‘accesso 'test'!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Entrez le nom d‘utilisateur </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'test' et le mot de passe 'test', s.v.p.!</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">start-the-tour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start the tour…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beginne die Tour…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incomincia il giro…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commencez le tour…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benutzername</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome utente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom d'utilisateur</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -1097,7 +1037,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1128,12 +1068,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1197,11 +1131,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1288,8 +1222,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -2088,24 +2022,24 @@
       <c r="D25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>123</v>
       </c>
       <c r="F25" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A25,""" : """,B25,""",")</f>
-        <v>"error" : "Error",</v>
+        <v>"enter-username-pwd" : "Please enter username 'test' and password 'test'!",</v>
       </c>
       <c r="G25" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A25,""" : """,C25,""",")</f>
-        <v>"error" : "Fehler",</v>
+        <v>"enter-username-pwd" : "Bitte Benutzername 'test' und Passwort 'test' eingeben!",</v>
       </c>
       <c r="H25" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A25,""" : """,D25,""",")</f>
-        <v>"error" : "Errore",</v>
+        <v>"enter-username-pwd" : "Pregasi immetere il nome dell utente 'test' e la parola d‘accesso 'test'!",</v>
       </c>
       <c r="I25" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A25,""" : """,E25,""",")</f>
-        <v>"error" : "Erreur",</v>
+        <v>"enter-username-pwd" : "Entrez le nom d‘utilisateur 'test' et le mot de passe 'test', s.v.p.!",</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,95 +2050,95 @@
         <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F26" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A26,""" : """,B26,""",")</f>
-        <v>"liechtenstein" : "Liechtenstein",</v>
+        <v>"error" : "Error",</v>
       </c>
       <c r="G26" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A26,""" : """,C26,""",")</f>
-        <v>"liechtenstein" : "Liechtenstein",</v>
+        <v>"error" : "Fehler",</v>
       </c>
       <c r="H26" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A26,""" : """,D26,""",")</f>
-        <v>"liechtenstein" : "Liechtenstein",</v>
+        <v>"error" : "Errore",</v>
       </c>
       <c r="I26" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A26,""" : """,E26,""",")</f>
-        <v>"liechtenstein" : "Liechtenstein",</v>
+        <v>"error" : "Erreur",</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F27" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A27,""" : """,B27,""",")</f>
-        <v>"limit" : "Limit",</v>
+        <v>"info" : "Information",</v>
       </c>
       <c r="G27" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A27,""" : """,C27,""",")</f>
-        <v>"limit" : "Limite",</v>
+        <v>"info" : "Information",</v>
       </c>
       <c r="H27" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A27,""" : """,D27,""",")</f>
-        <v>"limit" : "Limite",</v>
+        <v>"info" : "Informazione",</v>
       </c>
       <c r="I27" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A27,""" : """,E27,""",")</f>
-        <v>"limit" : "Limite",</v>
+        <v>"info" : "Information",</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F28" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A28,""" : """,B28,""",")</f>
-        <v>"lock-card" : "Lock Card",</v>
+        <v>"liechtenstein" : "Liechtenstein",</v>
       </c>
       <c r="G28" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A28,""" : """,C28,""",")</f>
-        <v>"lock-card" : "Karte sperren",</v>
+        <v>"liechtenstein" : "Liechtenstein",</v>
       </c>
       <c r="H28" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A28,""" : """,D28,""",")</f>
-        <v>"lock-card" : "Bloccare la carta",</v>
+        <v>"liechtenstein" : "Liechtenstein",</v>
       </c>
       <c r="I28" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A28,""" : """,E28,""",")</f>
-        <v>"lock-card" : "Bloquer la carte",</v>
+        <v>"liechtenstein" : "Liechtenstein",</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,1330 +2152,1330 @@
         <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F29" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A29,""" : """,B29,""",")</f>
-        <v>"lock-unlock" : "Lock / Unlock",</v>
+        <v>"limit" : "Limit",</v>
       </c>
       <c r="G29" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A29,""" : """,C29,""",")</f>
-        <v>"lock-unlock" : "Sperren / Entsperren",</v>
+        <v>"limit" : "Limite",</v>
       </c>
       <c r="H29" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A29,""" : """,D29,""",")</f>
-        <v>"lock-unlock" : "Bloccare / Sbloccare",</v>
+        <v>"limit" : "Limite",</v>
       </c>
       <c r="I29" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A29,""" : """,E29,""",")</f>
-        <v>"lock-unlock" : "Bloquer / Débloquer",</v>
+        <v>"limit" : "Limite",</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F30" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A30,""" : """,B30,""",")</f>
-        <v>"logout" : "Logout",</v>
+        <v>"lock-card" : "Lock Card",</v>
       </c>
       <c r="G30" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A30,""" : """,C30,""",")</f>
-        <v>"logout" : "Logout",</v>
+        <v>"lock-card" : "Karte sperren",</v>
       </c>
       <c r="H30" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A30,""" : """,D30,""",")</f>
-        <v>"logout" : "Logout",</v>
+        <v>"lock-card" : "Bloccare la carta",</v>
       </c>
       <c r="I30" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A30,""" : """,E30,""",")</f>
-        <v>"logout" : "Logout",</v>
+        <v>"lock-card" : "Bloquer la carte",</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="0" t="s">
         <v>144</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F31" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A31,""" : """,B31,""",")</f>
-        <v>"mask-reset-success" : "Input mask successfully reset!",</v>
+        <v>"lock-unlock" : "Lock / Unlock",</v>
       </c>
       <c r="G31" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A31,""" : """,C31,""",")</f>
-        <v>"mask-reset-success" : "Eingabemaske erfolgreich zurückgesetzt!",</v>
+        <v>"lock-unlock" : "Sperren / Entsperren",</v>
       </c>
       <c r="H31" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A31,""" : """,D31,""",")</f>
-        <v>"mask-reset-success" : "Campi di input resettati con successo!",</v>
+        <v>"lock-unlock" : "Bloccare / Sbloccare",</v>
       </c>
       <c r="I31" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A31,""" : """,E31,""",")</f>
-        <v>"mask-reset-success" : "Cadres réinitilisés avec succès!",</v>
+        <v>"lock-unlock" : "Bloquer / Débloquer",</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F32" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A32,""" : """,B32,""",")</f>
-        <v>"monthly-limit" : "Monthly Limit",</v>
+        <v>"login" : "Login",</v>
       </c>
       <c r="G32" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A32,""" : """,C32,""",")</f>
-        <v>"monthly-limit" : "Monatslimite",</v>
+        <v>"login" : "Login",</v>
       </c>
       <c r="H32" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A32,""" : """,D32,""",")</f>
-        <v>"monthly-limit" : "Limite mensile",</v>
+        <v>"login" : "Login",</v>
       </c>
       <c r="I32" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A32,""" : """,E32,""",")</f>
-        <v>"monthly-limit" : "Limite mensuelle",</v>
+        <v>"login" : "Login",</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F33" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A33,""" : """,B33,""",")</f>
-        <v>"mx-banklets" : "MX-Banklets",</v>
+        <v>"logout" : "Logout",</v>
       </c>
       <c r="G33" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A33,""" : """,C33,""",")</f>
-        <v>"mx-banklets" : "MX-Banklets",</v>
+        <v>"logout" : "Logout",</v>
       </c>
       <c r="H33" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A33,""" : """,D33,""",")</f>
-        <v>"mx-banklets" : "MX-Banklets",</v>
+        <v>"logout" : "Logout",</v>
       </c>
       <c r="I33" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A33,""" : """,E33,""",")</f>
-        <v>"mx-banklets" : "MX-Banklets",</v>
+        <v>"logout" : "Logout",</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="F34" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A34,""" : """,B34,""",")</f>
-        <v>"new-pin" : "New PIN",</v>
+        <v>"mask-reset-success" : "Input mask successfully reset!",</v>
       </c>
       <c r="G34" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A34,""" : """,C34,""",")</f>
-        <v>"new-pin" : "Neuer PIN",</v>
+        <v>"mask-reset-success" : "Eingabemaske erfolgreich zurückgesetzt!",</v>
       </c>
       <c r="H34" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A34,""" : """,D34,""",")</f>
-        <v>"new-pin" : "Nuovo PIN",</v>
+        <v>"mask-reset-success" : "Campi di input resettati con successo!",</v>
       </c>
       <c r="I34" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A34,""" : """,E34,""",")</f>
-        <v>"new-pin" : "Nouveau PIN",</v>
+        <v>"mask-reset-success" : "Cadres réinitilisés avec succès!",</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F35" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A35,""" : """,B35,""",")</f>
-        <v>"new-pin-request-success" : "New PIN successfully requested!",</v>
+        <v>"monthly-limit" : "Monthly Limit",</v>
       </c>
       <c r="G35" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A35,""" : """,C35,""",")</f>
-        <v>"new-pin-request-success" : "Neuer PIN erfolgreich beantragt!",</v>
+        <v>"monthly-limit" : "Monatslimite",</v>
       </c>
       <c r="H35" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A35,""" : """,D35,""",")</f>
-        <v>"new-pin-request-success" : "Nuovo PIN richiesto con successo!",</v>
+        <v>"monthly-limit" : "Limite mensile",</v>
       </c>
       <c r="I35" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A35,""" : """,E35,""",")</f>
-        <v>"new-pin-request-success" : "Un nouveau PIN a été demandé avec succès!",</v>
+        <v>"monthly-limit" : "Limite mensuelle",</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F36" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A36,""" : """,B36,""",")</f>
-        <v>"no" : "No",</v>
+        <v>"mx-banklets" : "MX-Banklets",</v>
       </c>
       <c r="G36" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A36,""" : """,C36,""",")</f>
-        <v>"no" : "Nein",</v>
+        <v>"mx-banklets" : "MX-Banklets",</v>
       </c>
       <c r="H36" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A36,""" : """,D36,""",")</f>
-        <v>"no" : "No",</v>
+        <v>"mx-banklets" : "MX-Banklets",</v>
       </c>
       <c r="I36" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A36,""" : """,E36,""",")</f>
-        <v>"no" : "Non",</v>
+        <v>"mx-banklets" : "MX-Banklets",</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F37" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A37,""" : """,B37,""",")</f>
-        <v>"no-changes-no-reset" : "No changes, nothing to undo.",</v>
+        <v>"new-pin" : "New PIN",</v>
       </c>
       <c r="G37" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A37,""" : """,C37,""",")</f>
-        <v>"no-changes-no-reset" : "Keine Änderungen, nichts zurückzusetzen.",</v>
+        <v>"new-pin" : "Neuer PIN",</v>
       </c>
       <c r="H37" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A37,""" : """,D37,""",")</f>
-        <v>"no-changes-no-reset" : "Non ci sono modificazioni, niente da resettare.",</v>
+        <v>"new-pin" : "Nuovo PIN",</v>
       </c>
       <c r="I37" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A37,""" : """,E37,""",")</f>
-        <v>"no-changes-no-reset" : "Il n‘y a pas de modifications à réinitialiser.",</v>
+        <v>"new-pin" : "Nouveau PIN",</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F38" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A38,""" : """,B38,""",")</f>
-        <v>"no-changes-no-save" : "No changes, nothing to save.",</v>
+        <v>"new-pin-request-success" : "New PIN successfully requested!",</v>
       </c>
       <c r="G38" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A38,""" : """,C38,""",")</f>
-        <v>"no-changes-no-save" : "Keine Änderungen, nichts zu speichern.",</v>
+        <v>"new-pin-request-success" : "Neuer PIN erfolgreich beantragt!",</v>
       </c>
       <c r="H38" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A38,""" : """,D38,""",")</f>
-        <v>"no-changes-no-save" : "Non ci sono modificazioni, niente da salvare.",</v>
+        <v>"new-pin-request-success" : "Nuovo PIN richiesto con successo!",</v>
       </c>
       <c r="I38" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A38,""" : """,E38,""",")</f>
-        <v>"no-changes-no-save" : "Il n‘y a pas de modifications à sauvegarder.",</v>
+        <v>"new-pin-request-success" : "Un nouveau PIN a été demandé avec succès!",</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F39" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A39,""" : """,B39,""",")</f>
-        <v>"ok" : "OK",</v>
+        <v>"no" : "No",</v>
       </c>
       <c r="G39" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A39,""" : """,C39,""",")</f>
-        <v>"ok" : "OK",</v>
+        <v>"no" : "Nein",</v>
       </c>
       <c r="H39" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A39,""" : """,D39,""",")</f>
-        <v>"ok" : "OK",</v>
+        <v>"no" : "No",</v>
       </c>
       <c r="I39" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A39,""" : """,E39,""",")</f>
-        <v>"ok" : "OK",</v>
+        <v>"no" : "Non",</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="F40" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A40,""" : """,B40,""",")</f>
-        <v>"order" : "Order",</v>
+        <v>"no-changes-no-reset" : "No changes, nothing to undo.",</v>
       </c>
       <c r="G40" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A40,""" : """,C40,""",")</f>
-        <v>"order" : "Bestellen",</v>
+        <v>"no-changes-no-reset" : "Keine Änderungen, nichts zurückzusetzen.",</v>
       </c>
       <c r="H40" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A40,""" : """,D40,""",")</f>
-        <v>"order" : "Ordinare",</v>
+        <v>"no-changes-no-reset" : "Non ci sono modificazioni, niente da resettare.",</v>
       </c>
       <c r="I40" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A40,""" : """,E40,""",")</f>
-        <v>"order" : "Commander",</v>
+        <v>"no-changes-no-reset" : "Il n‘y a pas de modifications à réinitialiser.",</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="F41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,B41,""",")</f>
-        <v>"password" : "Password",</v>
+        <v>"no-changes-no-save" : "No changes, nothing to save.",</v>
       </c>
       <c r="G41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,C41,""",")</f>
-        <v>"password" : "Passwort",</v>
+        <v>"no-changes-no-save" : "Keine Änderungen, nichts zu speichern.",</v>
       </c>
       <c r="H41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,D41,""",")</f>
-        <v>"password" : "Parola d'accesso",</v>
+        <v>"no-changes-no-save" : "Non ci sono modificazioni, niente da salvare.",</v>
       </c>
       <c r="I41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,E41,""",")</f>
-        <v>"password" : "Mot de passe",</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"no-changes-no-save" : "Il n‘y a pas de modifications à sauvegarder.",</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,B42,""",")</f>
-        <v>"order-qr-payment" : "To order a QR payment, please provide account and amount!",</v>
+        <v>"ok" : "OK",</v>
       </c>
       <c r="G42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,C42,""",")</f>
-        <v>"order-qr-payment" : "Konto und Betrag müssen ausgefüllt sein, damit eine QR-Zahlung bestellt werden kann!",</v>
+        <v>"ok" : "OK",</v>
       </c>
       <c r="H42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,D42,""",")</f>
-        <v>"order-qr-payment" : "Si prega di mettere a disposizione il conto e il montante per potere ordinare il pagamento QR! ",</v>
+        <v>"ok" : "OK",</v>
       </c>
       <c r="I42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,E42,""",")</f>
-        <v>"order-qr-payment" : "Compte et montant doivent être remplis avant de commander un paiement QR!",</v>
+        <v>"ok" : "OK",</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,B43,""",")</f>
-        <v>"qr-payment" : "QR Cash Withdrawal",</v>
+        <v>"order" : "Order",</v>
       </c>
       <c r="G43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,C43,""",")</f>
-        <v>"qr-payment" : "QR-Bargeldbezug",</v>
+        <v>"order" : "Bestellen",</v>
       </c>
       <c r="H43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,D43,""",")</f>
-        <v>"qr-payment" : "Riferimento contante QR",</v>
+        <v>"order" : "Ordinare",</v>
       </c>
       <c r="I43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,E43,""",")</f>
-        <v>"qr-payment" : "Retrait de liquide QR",</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"order" : "Commander",</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="F44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,B44,""",")</f>
-        <v>"qr-payment-order-success" : "QR cash withdrawal successfully ordered!",</v>
+        <v>"order-qr-payment" : "To order a QR payment, please provide account and amount!",</v>
       </c>
       <c r="G44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,C44,""",")</f>
-        <v>"qr-payment-order-success" : "QR-Bargeldbezug erfolgreich bestellt!",</v>
+        <v>"order-qr-payment" : "Konto und Betrag müssen ausgefüllt sein, damit eine QR-Zahlung bestellt werden kann!",</v>
       </c>
       <c r="H44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,D44,""",")</f>
-        <v>"qr-payment-order-success" : "Riferimento contante QR è stato ordinato con successo.",</v>
+        <v>"order-qr-payment" : "Si prega di mettere a disposizione il conto e il montante per potere ordinare il pagamento QR! ",</v>
       </c>
       <c r="I44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,E44,""",")</f>
-        <v>"qr-payment-order-success" : "Retrait de liquide QR a été commandé avec succès!",</v>
+        <v>"order-qr-payment" : "Compte et montant doivent être remplis avant de commander un paiement QR!",</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,B45,""",")</f>
-        <v>"quick-tour" : "Quick Tour",</v>
+        <v>"password" : "Password",</v>
       </c>
       <c r="G45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,C45,""",")</f>
-        <v>"quick-tour" : "Quick Tour",</v>
+        <v>"password" : "Passwort",</v>
       </c>
       <c r="H45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,D45,""",")</f>
-        <v>"quick-tour" : "Quick Tour (giro)",</v>
+        <v>"password" : "Parola d'accesso",</v>
       </c>
       <c r="I45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,E45,""",")</f>
-        <v>"quick-tour" : "Quick Tour",</v>
+        <v>"password" : "Mot de passe",</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="F46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,B46,""",")</f>
-        <v>"region-settings" : "Region Settings",</v>
+        <v>"qr-payment" : "QR Cash Withdrawal",</v>
       </c>
       <c r="G46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,C46,""",")</f>
-        <v>"region-settings" : "Regionenfreischaltung",</v>
+        <v>"qr-payment" : "QR-Bargeldbezug",</v>
       </c>
       <c r="H46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,D46,""",")</f>
-        <v>"region-settings" : "Selezione di regioni",</v>
+        <v>"qr-payment" : "Riferimento contante QR",</v>
       </c>
       <c r="I46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,E46,""",")</f>
-        <v>"region-settings" : "Sélection de régions",</v>
+        <v>"qr-payment" : "Retrait de liquide QR",</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="E47" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="F47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,B47,""",")</f>
-        <v>"request-new-pin" : "Request New PIN",</v>
+        <v>"qr-payment-order-success" : "QR cash withdrawal successfully ordered!",</v>
       </c>
       <c r="G47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,C47,""",")</f>
-        <v>"request-new-pin" : "Neuen PIN beantragen",</v>
+        <v>"qr-payment-order-success" : "QR-Bargeldbezug erfolgreich bestellt!",</v>
       </c>
       <c r="H47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,D47,""",")</f>
-        <v>"request-new-pin" : "Richiedere un nuovo PIN",</v>
+        <v>"qr-payment-order-success" : "Riferimento contante QR è stato ordinato con successo.",</v>
       </c>
       <c r="I47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,E47,""",")</f>
-        <v>"request-new-pin" : "Demander nouveau PIN",</v>
+        <v>"qr-payment-order-success" : "Retrait de liquide QR a été commandé avec succès!",</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,B48,""",")</f>
-        <v>"reset" : "Reset",</v>
+        <v>"quick-tour" : "Quick Tour",</v>
       </c>
       <c r="G48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,C48,""",")</f>
-        <v>"reset" : "Zurücksetzen",</v>
+        <v>"quick-tour" : "Quick Tour",</v>
       </c>
       <c r="H48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,D48,""",")</f>
-        <v>"reset" : "Resettare",</v>
+        <v>"quick-tour" : "Quick Tour (giro)",</v>
       </c>
       <c r="I48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,E48,""",")</f>
-        <v>"reset" : "Réinitialiser",</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"quick-tour" : "Quick Tour",</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,B49,""",")</f>
-        <v>"run-the-tour-" : "Run the Quick-Tour at any time later by selecting it from the menu.",</v>
+        <v>"region-settings" : "Region Settings",</v>
       </c>
       <c r="G49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,C49,""",")</f>
-        <v>"run-the-tour-" : "Sie können die Quick-Tour jederzeit später ausführen, indem Sie sie im Menü auswählen.",</v>
+        <v>"region-settings" : "Regionenfreischaltung",</v>
       </c>
       <c r="H49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,D49,""",")</f>
-        <v>"run-the-tour-" : "Si può sempre prendere il Quick-Tour più tardi, scegliandolo dal menu.",</v>
+        <v>"region-settings" : "Selezione di regioni",</v>
       </c>
       <c r="I49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,E49,""",")</f>
-        <v>"run-the-tour-" : "Vour pouvez exécuter le Quick-Tour plus tard si vous le choisissez du menu.",</v>
+        <v>"region-settings" : "Sélection de régions",</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,B50,""",")</f>
-        <v>"save" : "Save",</v>
+        <v>"register" : "Register",</v>
       </c>
       <c r="G50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,C50,""",")</f>
-        <v>"save" : "Speichern",</v>
+        <v>"register" : "Registrieren",</v>
       </c>
       <c r="H50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,D50,""",")</f>
-        <v>"save" : "Salvare",</v>
+        <v>"register" : "Registrare",</v>
       </c>
       <c r="I50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,E50,""",")</f>
-        <v>"save" : "Sauvegarder",</v>
+        <v>"register" : "Enregistrer",</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,B51,""",")</f>
-        <v>"select-lang" : "Select Language",</v>
+        <v>"request-new-pin" : "Request New PIN",</v>
       </c>
       <c r="G51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,C51,""",")</f>
-        <v>"select-lang" : "Sprache wählen",</v>
+        <v>"request-new-pin" : "Neuen PIN beantragen",</v>
       </c>
       <c r="H51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,D51,""",")</f>
-        <v>"select-lang" : "Scegli la lingua",</v>
+        <v>"request-new-pin" : "Richiedere un nuovo PIN",</v>
       </c>
       <c r="I51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,E51,""",")</f>
-        <v>"select-lang" : "Choisissez la langue",</v>
+        <v>"request-new-pin" : "Demander nouveau PIN",</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,B52,""",")</f>
-        <v>"send" : "Send",</v>
+        <v>"reset" : "Reset",</v>
       </c>
       <c r="G52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,C52,""",")</f>
-        <v>"send" : "Abschicken",</v>
+        <v>"reset" : "Zurücksetzen",</v>
       </c>
       <c r="H52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,D52,""",")</f>
-        <v>"send" : "Spedire",</v>
+        <v>"reset" : "Resettare",</v>
       </c>
       <c r="I52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,E52,""",")</f>
-        <v>"send" : "Envoyer",</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"reset" : "Réinitialiser",</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,B53,""",")</f>
-        <v>"settings" : "Settings",</v>
+        <v>"run-the-tour-" : "Run the Quick-Tour at any time later by selecting it from the menu.",</v>
       </c>
       <c r="G53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,C53,""",")</f>
-        <v>"settings" : "Einstellungen",</v>
+        <v>"run-the-tour-" : "Sie können die Quick-Tour jederzeit später ausführen, indem Sie sie im Menü auswählen.",</v>
       </c>
       <c r="H53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,D53,""",")</f>
-        <v>"settings" : "Regolazione",</v>
+        <v>"run-the-tour-" : "Si può sempre prendere il Quick-Tour più tardi, scegliandolo dal menu.",</v>
       </c>
       <c r="I53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,E53,""",")</f>
-        <v>"settings" : "Paramètres",</v>
+        <v>"run-the-tour-" : "Vour pouvez exécuter le Quick-Tour plus tard si vous le choisissez du menu.",</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,B54,""",")</f>
-        <v>"settings-stored-success" : "Settings successfully stored!",</v>
+        <v>"save" : "Save",</v>
       </c>
       <c r="G54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,C54,""",")</f>
-        <v>"settings-stored-success" : "Die Einstellungen wurden erfolgreich gespeichert!",</v>
+        <v>"save" : "Speichern",</v>
       </c>
       <c r="H54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,D54,""",")</f>
-        <v>"settings-stored-success" : "La regulazione è stata salvata di successo!",</v>
+        <v>"save" : "Salvare",</v>
       </c>
       <c r="I54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,E54,""",")</f>
-        <v>"settings-stored-success" : "Les paramètres ont étés sauvegardés aves succès!",</v>
+        <v>"save" : "Sauvegarder",</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,B55,""",")</f>
-        <v>"success" : "Success",</v>
+        <v>"select-lang" : "Select Language",</v>
       </c>
       <c r="G55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,C55,""",")</f>
-        <v>"success" : "Erfolg",</v>
+        <v>"select-lang" : "Sprache wählen",</v>
       </c>
       <c r="H55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,D55,""",")</f>
-        <v>"success" : "Successo",</v>
+        <v>"select-lang" : "Scegli la lingua",</v>
       </c>
       <c r="I55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,E55,""",")</f>
-        <v>"success" : "Succès",</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"select-lang" : "Choisissez la langue",</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,B56,""",")</f>
-        <v>"swipe-through-the-tour-" : "Swipe through the Quick-Tour to get an overview of MX-Banklets' features.",</v>
+        <v>"send" : "Send",</v>
       </c>
       <c r="G56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,C56,""",")</f>
-        <v>"swipe-through-the-tour-" : "Wischen Sie durch die Quick-Tour, um einen Überblick über die Features der MX-Banklets zu bekommen. ",</v>
+        <v>"send" : "Abschicken",</v>
       </c>
       <c r="H56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,D56,""",")</f>
-        <v>"swipe-through-the-tour-" : "Passa a traverso il Quick-Tour per ottenere uno sguardo d'insieme delle funzioni die MX-Banklets.",</v>
+        <v>"send" : "Spedire",</v>
       </c>
       <c r="I56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,E56,""",")</f>
-        <v>"swipe-through-the-tour-" : "Passez par le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"send" : "Envoyer",</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,B57,""",")</f>
-        <v>"take-the-tour-" : "Take the Quick-Tour to get an overview of MX-Banklets' features.",</v>
+        <v>"settings" : "Settings",</v>
       </c>
       <c r="G57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,C57,""",")</f>
-        <v>"take-the-tour-" : "Nehmen Sie die Quick-Tour, um einen ersten Überblick über die Features von MX-Banklets zu erhalten.",</v>
+        <v>"settings" : "Einstellungen",</v>
       </c>
       <c r="H57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,D57,""",")</f>
-        <v>"take-the-tour-" : "Prenda il Quick-Tour per ottenere un primo sguardo sulle funzioni die MX-Banklets.",</v>
+        <v>"settings" : "Regolazione",</v>
       </c>
       <c r="I57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,E57,""",")</f>
-        <v>"take-the-tour-" : "Prenez le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
+        <v>"settings" : "Paramètres",</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,B58,""",")</f>
-        <v>"text" : "Text",</v>
+        <v>"settings-stored-success" : "Settings successfully stored!",</v>
       </c>
       <c r="G58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,C58,""",")</f>
-        <v>"text" : "Text",</v>
+        <v>"settings-stored-success" : "Die Einstellungen wurden erfolgreich gespeichert!",</v>
       </c>
       <c r="H58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,D58,""",")</f>
-        <v>"text" : "Denominazione",</v>
+        <v>"settings-stored-success" : "La regulazione è stata salvata di successo!",</v>
       </c>
       <c r="I58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,E58,""",")</f>
-        <v>"text" : "Texte",</v>
+        <v>"settings-stored-success" : "Les paramètres ont étés sauvegardés aves succès!",</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,B59,""",")</f>
-        <v>"to" : "to",</v>
+        <v>"show-confirmations" : "Confirmations",</v>
       </c>
       <c r="G59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,C59,""",")</f>
-        <v>"to" : "bis",</v>
+        <v>"show-confirmations" : "Bestätigungsmeldungen",</v>
       </c>
       <c r="H59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,D59,""",")</f>
-        <v>"to" : "Al",</v>
+        <v>"show-confirmations" : "Confirmazioni",</v>
       </c>
       <c r="I59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,E59,""",")</f>
-        <v>"to" : "au",</v>
+        <v>"show-confirmations" : "Confirmations",</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,B60,""",")</f>
-        <v>"type" : "Type",</v>
+        <v>"show-notifications" : "Notifications",</v>
       </c>
       <c r="G60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,C60,""",")</f>
-        <v>"type" : "Typ",</v>
+        <v>"show-notifications" : "Notifizierungen",</v>
       </c>
       <c r="H60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,D60,""",")</f>
-        <v>"type" : "Tipo",</v>
+        <v>"show-notifications" : "Notificazioni",</v>
       </c>
       <c r="I60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,E60,""",")</f>
-        <v>"type" : "Type",</v>
+        <v>"show-notifications" : "Notifications",</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="F61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,B61,""",")</f>
-        <v>"unlock-card" : "Unlock Card",</v>
+        <v>"start-the-tour" : "Start the tour…",</v>
       </c>
       <c r="G61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,C61,""",")</f>
-        <v>"unlock-card" : "Sperrung aufheben",</v>
+        <v>"start-the-tour" : "Beginne die Tour…",</v>
       </c>
       <c r="H61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,D61,""",")</f>
-        <v>"unlock-card" : "Sbloccare la carta",</v>
+        <v>"start-the-tour" : "Incomincia il giro…",</v>
       </c>
       <c r="I61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,E61,""",")</f>
-        <v>"unlock-card" : "Débloquer la carte",</v>
+        <v>"start-the-tour" : "Commencez le tour…",</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>288</v>
       </c>
       <c r="F62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,B62,""",")</f>
-        <v>"valid-from" : "Valid From",</v>
+        <v>"success" : "Success",</v>
       </c>
       <c r="G62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,C62,""",")</f>
-        <v>"valid-from" : "Gültig von",</v>
+        <v>"success" : "Erfolg",</v>
       </c>
       <c r="H62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,D62,""",")</f>
-        <v>"valid-from" : "Valido dal",</v>
+        <v>"success" : "Successo",</v>
       </c>
       <c r="I62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,E62,""",")</f>
-        <v>"valid-from" : "Valable du",</v>
-      </c>
-    </row>
-    <row r="63" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"success" : "Succès",</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="F63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,B63,""",")</f>
-        <v>"version" : "Version",</v>
+        <v>"swipe-through-the-tour-" : "Swipe through the Quick-Tour to get an overview of MX-Banklets' features.",</v>
       </c>
       <c r="G63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,C63,""",")</f>
-        <v>"version" : "Version",</v>
+        <v>"swipe-through-the-tour-" : "Wischen Sie durch die Quick-Tour, um einen Überblick über die Features der MX-Banklets zu bekommen. ",</v>
       </c>
       <c r="H63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,D63,""",")</f>
-        <v>"version" : "Versione",</v>
+        <v>"swipe-through-the-tour-" : "Passa a traverso il Quick-Tour per ottenere uno sguardo d'insieme delle funzioni die MX-Banklets.",</v>
       </c>
       <c r="I63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,E63,""",")</f>
-        <v>"version" : "Version",</v>
-      </c>
-    </row>
-    <row r="64" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"swipe-through-the-tour-" : "Passez par le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="F64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,B64,""",")</f>
-        <v>"warning" : "Warning",</v>
+        <v>"take-the-tour-" : "Take the Quick-Tour to get an overview of MX-Banklets' features.",</v>
       </c>
       <c r="G64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,C64,""",")</f>
-        <v>"warning" : "Achtung",</v>
+        <v>"take-the-tour-" : "Nehmen Sie die Quick-Tour, um einen ersten Überblick über die Features von MX-Banklets zu erhalten.",</v>
       </c>
       <c r="H64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,D64,""",")</f>
-        <v>"warning" : "Attenzione",</v>
+        <v>"take-the-tour-" : "Prenda il Quick-Tour per ottenere un primo sguardo sulle funzioni die MX-Banklets.",</v>
       </c>
       <c r="I64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,E64,""",")</f>
-        <v>"warning" : "Attention",</v>
-      </c>
-    </row>
-    <row r="65" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"take-the-tour-" : "Prenez le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,B65,""",")</f>
-        <v>"show-confirmations" : "Confirmations",</v>
+        <v>"text" : "Text",</v>
       </c>
       <c r="G65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,C65,""",")</f>
-        <v>"show-confirmations" : "Bestätigungsmeldungen",</v>
+        <v>"text" : "Text",</v>
       </c>
       <c r="H65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,D65,""",")</f>
-        <v>"show-confirmations" : "Confirmazioni",</v>
+        <v>"text" : "Denominazione",</v>
       </c>
       <c r="I65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,E65,""",")</f>
-        <v>"show-confirmations" : "Confirmations",</v>
-      </c>
-    </row>
-    <row r="66" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"text" : "Texte",</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>302</v>
       </c>
       <c r="F66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,B66,""",")</f>
-        <v>"show-notifications" : "Notifications",</v>
+        <v>"to" : "to",</v>
       </c>
       <c r="G66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,C66,""",")</f>
-        <v>"show-notifications" : "Notifizierungen",</v>
+        <v>"to" : "bis",</v>
       </c>
       <c r="H66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,D66,""",")</f>
-        <v>"show-notifications" : "Notificazioni",</v>
+        <v>"to" : "Al",</v>
       </c>
       <c r="I66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,E66,""",")</f>
-        <v>"show-notifications" : "Notifications",</v>
-      </c>
-    </row>
-    <row r="67" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"to" : "au",</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>309</v>
+      <c r="E67" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="F67" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A67,""" : """,B67,""",")</f>
-        <v>"enter-username-pwd" : "Please enter username 'test' and password 'test'!",</v>
+        <v>"type" : "Type",</v>
       </c>
       <c r="G67" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A67,""" : """,C67,""",")</f>
-        <v>"enter-username-pwd" : "Bitte Benutzername 'test' und Passwort 'test' eingeben!",</v>
+        <v>"type" : "Typ",</v>
       </c>
       <c r="H67" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A67,""" : """,D67,""",")</f>
-        <v>"enter-username-pwd" : "Pregasi immetere il nome dell utente 'test' e la parola d‘accesso 'test'!",</v>
+        <v>"type" : "Tipo",</v>
       </c>
       <c r="I67" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A67,""" : """,E67,""",")</f>
-        <v>"enter-username-pwd" : "Entrez le nom d‘utilisateur 'test' et le mot de passe 'test', s.v.p.!",</v>
-      </c>
-    </row>
-    <row r="68" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"type" : "Type",</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="F68" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A68,""" : """,B68,""",")</f>
-        <v>"start-the-tour" : "Start the tour…",</v>
+        <v>"unlock-card" : "Unlock Card",</v>
       </c>
       <c r="G68" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A68,""" : """,C68,""",")</f>
-        <v>"start-the-tour" : "Beginne die Tour…",</v>
+        <v>"unlock-card" : "Sperrung aufheben",</v>
       </c>
       <c r="H68" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A68,""" : """,D68,""",")</f>
-        <v>"start-the-tour" : "Incomincia il giro…",</v>
+        <v>"unlock-card" : "Sbloccare la carta",</v>
       </c>
       <c r="I68" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A68,""" : """,E68,""",")</f>
-        <v>"start-the-tour" : "Commencez le tour…",</v>
-      </c>
-    </row>
-    <row r="69" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"unlock-card" : "Débloquer la carte",</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="F69" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A69,""" : """,B69,""",")</f>
@@ -3560,57 +3494,153 @@
         <v>"username" : "Nom d'utilisateur",</v>
       </c>
     </row>
-    <row r="70" s="4" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="F70" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A70,""" : """,B70,""",")</f>
-        <v>"yes" : "Yes",</v>
+        <v>"valid-from" : "Valid From",</v>
       </c>
       <c r="G70" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A70,""" : """,C70,""",")</f>
-        <v>"yes" : "Ja",</v>
+        <v>"valid-from" : "Gültig von",</v>
       </c>
       <c r="H70" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A70,""" : """,D70,""",")</f>
-        <v>"yes" : "Sì",</v>
+        <v>"valid-from" : "Valido dal",</v>
       </c>
       <c r="I70" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A70,""" : """,E70,""",")</f>
+        <v>"valid-from" : "Valable du",</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A71,""" : """,B71,""",")</f>
+        <v>"version" : "Version",</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A71,""" : """,C71,""",")</f>
+        <v>"version" : "Version",</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A71,""" : """,D71,""",")</f>
+        <v>"version" : "Versione",</v>
+      </c>
+      <c r="I71" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A71,""" : """,E71,""",")</f>
+        <v>"version" : "Version",</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A72,""" : """,B72,""",")</f>
+        <v>"warning" : "Warning",</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A72,""" : """,C72,""",")</f>
+        <v>"warning" : "Achtung",</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A72,""" : """,D72,""",")</f>
+        <v>"warning" : "Attenzione",</v>
+      </c>
+      <c r="I72" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A72,""" : """,E72,""",")</f>
+        <v>"warning" : "Attention",</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A73,""" : """,B73,""",")</f>
+        <v>"yes" : "Yes",</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A73,""" : """,C73,""",")</f>
+        <v>"yes" : "Ja",</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A73,""" : """,D73,""",")</f>
+        <v>"yes" : "Sì",</v>
+      </c>
+      <c r="I73" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A73,""" : """,E73,""",")</f>
         <v>"yes" : "Oui",</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="72" s="5" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="75" s="5" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/translations.xlsx
+++ b/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="365">
   <si>
     <t xml:space="preserve">KEY</t>
   </si>
@@ -142,6 +142,21 @@
     <t xml:space="preserve">Montant</t>
   </si>
   <si>
+    <t xml:space="preserve">amount-not-a-number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount is not a number. Must be a number!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betrag ungültig. Muss eine gültige Zahl sein!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il montante non è valido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le montant n‘est pas valable.</t>
+  </si>
+  <si>
     <t xml:space="preserve">application-reset-success</t>
   </si>
   <si>
@@ -292,6 +307,18 @@
     <t xml:space="preserve">Les modifications ont été sauvegardées avec succès!</t>
   </si>
   <si>
+    <t xml:space="preserve">confirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bestätigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conferma</t>
+  </si>
+  <si>
     <t xml:space="preserve">confirm-cancel</t>
   </si>
   <si>
@@ -619,6 +646,21 @@
     <t xml:space="preserve">Compte et montant doivent être remplis avant de commander un paiement QR!</t>
   </si>
   <si>
+    <t xml:space="preserve">overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Übersicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il compendio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vue d‘ensemble</t>
+  </si>
+  <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
@@ -763,6 +805,21 @@
     <t xml:space="preserve">Sauvegarder</t>
   </si>
   <si>
+    <t xml:space="preserve">select-card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karte wählen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scegli la carta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisissez la carte</t>
+  </si>
+  <si>
     <t xml:space="preserve">select-lang</t>
   </si>
   <si>
@@ -988,6 +1045,21 @@
     <t xml:space="preserve">Valable du</t>
   </si>
   <si>
+    <t xml:space="preserve">valid-from-to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid from...to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gültig von...bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valido dal...al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valable du...au</t>
+  </si>
+  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -1010,6 +1082,21 @@
   </si>
   <si>
     <t xml:space="preserve">Attention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what-do-you-want-to-do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What would you like to do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was möchten Sie tun?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosa vuole fare?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu'est-ce que vous voulez faire?</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -1043,7 +1130,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1067,7 +1153,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1220,13 +1305,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="2" min="2" style="1" width="60.16"/>
@@ -1240,7 +1325,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="10.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1499,19 +1584,19 @@
       </c>
       <c r="F9" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A9,""" : """,B9,""",")</f>
-        <v>"application-reset-success" : "Inputs of application successfully reset!",</v>
+        <v>"amount-not-a-number" : "Amount is not a number. Must be a number!",</v>
       </c>
       <c r="G9" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A9,""" : """,C9,""",")</f>
-        <v>"application-reset-success" : "Antrag erfolgreich zurückgesetzt!",</v>
+        <v>"amount-not-a-number" : "Betrag ungültig. Muss eine gültige Zahl sein!",</v>
       </c>
       <c r="H9" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A9,""" : """,D9,""",")</f>
-        <v>"application-reset-success" : "Richiesta di carta è stata resettata con successo!",</v>
+        <v>"amount-not-a-number" : "Il montante non è valido.",</v>
       </c>
       <c r="I9" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A9,""" : """,E9,""",")</f>
-        <v>"application-reset-success" : "La requête a été réinitialisée avec succès!",</v>
+        <v>"amount-not-a-number" : "Le montant n‘est pas valable.",</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,19 +1617,19 @@
       </c>
       <c r="F10" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A10,""" : """,B10,""",")</f>
-        <v>"application-sent-success" : "Application successfully sent!",</v>
+        <v>"application-reset-success" : "Inputs of application successfully reset!",</v>
       </c>
       <c r="G10" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A10,""" : """,C10,""",")</f>
-        <v>"application-sent-success" : "Kartenantrag erfolgreich abgeschickt!",</v>
+        <v>"application-reset-success" : "Antrag erfolgreich zurückgesetzt!",</v>
       </c>
       <c r="H10" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A10,""" : """,D10,""",")</f>
-        <v>"application-sent-success" : "Richiesta di carta è stata spedita con successo!",</v>
+        <v>"application-reset-success" : "Richiesta di carta è stata resettata con successo!",</v>
       </c>
       <c r="I10" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A10,""" : """,E10,""",")</f>
-        <v>"application-sent-success" : "La requête de carte a été envoyée avec succès!",</v>
+        <v>"application-reset-success" : "La requête a été réinitialisée avec succès!",</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,19 +1650,19 @@
       </c>
       <c r="F11" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A11,""" : """,B11,""",")</f>
-        <v>"cancel" : "Cancel",</v>
+        <v>"application-sent-success" : "Application successfully sent!",</v>
       </c>
       <c r="G11" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A11,""" : """,C11,""",")</f>
-        <v>"cancel" : "Abbrechen",</v>
+        <v>"application-sent-success" : "Kartenantrag erfolgreich abgeschickt!",</v>
       </c>
       <c r="H11" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A11,""" : """,D11,""",")</f>
-        <v>"cancel" : "Cancellare",</v>
+        <v>"application-sent-success" : "Richiesta di carta è stata spedita con successo!",</v>
       </c>
       <c r="I11" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A11,""" : """,E11,""",")</f>
-        <v>"cancel" : "Abandonner",</v>
+        <v>"application-sent-success" : "La requête de carte a été envoyée avec succès!",</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,19 +1683,19 @@
       </c>
       <c r="F12" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A12,""" : """,B12,""",")</f>
-        <v>"card" : "Card",</v>
+        <v>"cancel" : "Cancel",</v>
       </c>
       <c r="G12" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A12,""" : """,C12,""",")</f>
-        <v>"card" : "Karte",</v>
+        <v>"cancel" : "Abbrechen",</v>
       </c>
       <c r="H12" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A12,""" : """,D12,""",")</f>
-        <v>"card" : "Carta",</v>
+        <v>"cancel" : "Cancellare",</v>
       </c>
       <c r="I12" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A12,""" : """,E12,""",")</f>
-        <v>"card" : "Carte",</v>
+        <v>"cancel" : "Abandonner",</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,19 +1716,19 @@
       </c>
       <c r="F13" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A13,""" : """,B13,""",")</f>
-        <v>"card-admin" : "Card Administration",</v>
+        <v>"card" : "Card",</v>
       </c>
       <c r="G13" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A13,""" : """,C13,""",")</f>
-        <v>"card-admin" : "Kartenverwaltung",</v>
+        <v>"card" : "Karte",</v>
       </c>
       <c r="H13" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A13,""" : """,D13,""",")</f>
-        <v>"card-admin" : "Administrazione di carte",</v>
+        <v>"card" : "Carta",</v>
       </c>
       <c r="I13" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A13,""" : """,E13,""",")</f>
-        <v>"card-admin" : "Gestion de cartes",</v>
+        <v>"card" : "Carte",</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,19 +1749,19 @@
       </c>
       <c r="F14" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A14,""" : """,B14,""",")</f>
-        <v>"card-application" : "Card Application",</v>
+        <v>"card-admin" : "Card Administration",</v>
       </c>
       <c r="G14" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A14,""" : """,C14,""",")</f>
-        <v>"card-application" : "Kartenantrag",</v>
+        <v>"card-admin" : "Kartenverwaltung",</v>
       </c>
       <c r="H14" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A14,""" : """,D14,""",")</f>
-        <v>"card-application" : "Richiesta di carta",</v>
+        <v>"card-admin" : "Administrazione di carte",</v>
       </c>
       <c r="I14" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A14,""" : """,E14,""",")</f>
-        <v>"card-application" : "Requête de carte",</v>
+        <v>"card-admin" : "Gestion de cartes",</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1697,19 +1782,19 @@
       </c>
       <c r="F15" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A15,""" : """,B15,""",")</f>
-        <v>"card-lock-success" : "Card successfully locked!",</v>
+        <v>"card-application" : "Card Application",</v>
       </c>
       <c r="G15" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A15,""" : """,C15,""",")</f>
-        <v>"card-lock-success" : "Karte erfolgreich gesperrt!",</v>
+        <v>"card-application" : "Kartenantrag",</v>
       </c>
       <c r="H15" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A15,""" : """,D15,""",")</f>
-        <v>"card-lock-success" : "Carta bloccata con successo!",</v>
+        <v>"card-application" : "Richiesta di carta",</v>
       </c>
       <c r="I15" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A15,""" : """,E15,""",")</f>
-        <v>"card-lock-success" : "La carte a été bloquée avec success!",</v>
+        <v>"card-application" : "Requête de carte",</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1730,19 +1815,19 @@
       </c>
       <c r="F16" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A16,""" : """,B16,""",")</f>
-        <v>"card-unlock-success" : "Card successfully unlocked!",</v>
+        <v>"card-lock-success" : "Card successfully locked!",</v>
       </c>
       <c r="G16" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A16,""" : """,C16,""",")</f>
-        <v>"card-unlock-success" : "Karte erfolgreich entsperrt!",</v>
+        <v>"card-lock-success" : "Karte erfolgreich gesperrt!",</v>
       </c>
       <c r="H16" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A16,""" : """,D16,""",")</f>
-        <v>"card-unlock-success" : "Carta sbloccata con successo!",</v>
+        <v>"card-lock-success" : "Carta bloccata con successo!",</v>
       </c>
       <c r="I16" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A16,""" : """,E16,""",")</f>
-        <v>"card-unlock-success" : "La carte a été débloquée avec success!",</v>
+        <v>"card-lock-success" : "La carte a été bloquée avec success!",</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,19 +1848,19 @@
       </c>
       <c r="F17" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A17,""" : """,B17,""",")</f>
-        <v>"changes-reset-success" : "Changes have been undone successfully!",</v>
+        <v>"card-unlock-success" : "Card successfully unlocked!",</v>
       </c>
       <c r="G17" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A17,""" : """,C17,""",")</f>
-        <v>"changes-reset-success" : "Änderungen erfolgreich zurückgesetzt!",</v>
+        <v>"card-unlock-success" : "Karte erfolgreich entsperrt!",</v>
       </c>
       <c r="H17" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A17,""" : """,D17,""",")</f>
-        <v>"changes-reset-success" : "Modificazioni resettate con successo!",</v>
+        <v>"card-unlock-success" : "Carta sbloccata con successo!",</v>
       </c>
       <c r="I17" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A17,""" : """,E17,""",")</f>
-        <v>"changes-reset-success" : "Des modifications ont été réinitialisées avec succès!",</v>
+        <v>"card-unlock-success" : "La carte a été débloquée avec success!",</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,19 +1881,19 @@
       </c>
       <c r="F18" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A18,""" : """,B18,""",")</f>
-        <v>"changes-saved-success" : "Changes have been saved successfully!",</v>
+        <v>"changes-reset-success" : "Changes have been undone successfully!",</v>
       </c>
       <c r="G18" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A18,""" : """,C18,""",")</f>
-        <v>"changes-saved-success" : "Änderungen erfolgreich gespeichert!",</v>
+        <v>"changes-reset-success" : "Änderungen erfolgreich zurückgesetzt!",</v>
       </c>
       <c r="H18" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A18,""" : """,D18,""",")</f>
-        <v>"changes-saved-success" : "Modificazioni salvati con successo!",</v>
+        <v>"changes-reset-success" : "Modificazioni resettate con successo!",</v>
       </c>
       <c r="I18" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A18,""" : """,E18,""",")</f>
-        <v>"changes-saved-success" : "Les modifications ont été sauvegardées avec succès!",</v>
+        <v>"changes-reset-success" : "Des modifications ont été réinitialisées avec succès!",</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,19 +1914,19 @@
       </c>
       <c r="F19" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A19,""" : """,B19,""",")</f>
-        <v>"confirm-cancel" : "Do you really want to cancel? Changes will be lost!",</v>
+        <v>"changes-saved-success" : "Changes have been saved successfully!",</v>
       </c>
       <c r="G19" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A19,""" : """,C19,""",")</f>
-        <v>"confirm-cancel" : "Wollen Sie wirklich abbrechen? Änderungen gehen verloren!",</v>
+        <v>"changes-saved-success" : "Änderungen erfolgreich gespeichert!",</v>
       </c>
       <c r="H19" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A19,""" : """,D19,""",")</f>
-        <v>"confirm-cancel" : "È siccura di cancellare? Modificazioni vanno perdute!",</v>
+        <v>"changes-saved-success" : "Modificazioni salvati con successo!",</v>
       </c>
       <c r="I19" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A19,""" : """,E19,""",")</f>
-        <v>"confirm-cancel" : "Voulez-vous vraiment abandonner? Les modifications seront perdues!",</v>
+        <v>"changes-saved-success" : "Les modifications ont été sauvegardées avec succès!",</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,125 +1943,125 @@
         <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F20" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A20,""" : """,B20,""",")</f>
-        <v>"daily-limit" : "Daily Limit",</v>
+        <v>"confirmation" : "Confirmation",</v>
       </c>
       <c r="G20" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A20,""" : """,C20,""",")</f>
-        <v>"daily-limit" : "Tageslimite",</v>
+        <v>"confirmation" : "Bestätigung",</v>
       </c>
       <c r="H20" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A20,""" : """,D20,""",")</f>
-        <v>"daily-limit" : "Limite quotidiana",</v>
+        <v>"confirmation" : "Conferma",</v>
       </c>
       <c r="I20" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A20,""" : """,E20,""",")</f>
-        <v>"daily-limit" : "Limite quotidienne",</v>
+        <v>"confirmation" : "Confirmation",</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F21" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A21,""" : """,B21,""",")</f>
-        <v>"data-protection-header" : "Data Protection &amp; Privacy",</v>
+        <v>"confirm-cancel" : "Do you really want to cancel? Changes will be lost!",</v>
       </c>
       <c r="G21" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A21,""" : """,C21,""",")</f>
-        <v>"data-protection-header" : "Datenschutz und Privatsphäre",</v>
+        <v>"confirm-cancel" : "Wollen Sie wirklich abbrechen? Änderungen gehen verloren!",</v>
       </c>
       <c r="H21" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A21,""" : """,D21,""",")</f>
-        <v>"data-protection-header" : "Protezione dei dati personali e ambito privato",</v>
+        <v>"confirm-cancel" : "È siccura di cancellare? Modificazioni vanno perdute!",</v>
       </c>
       <c r="I21" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A21,""" : """,E21,""",")</f>
-        <v>"data-protection-header" : "Protéction des données et de la vie privée",</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"confirm-cancel" : "Voulez-vous vraiment abandonner? Les modifications seront perdues!",</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="F22" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A22,""" : """,B22,""",")</f>
-        <v>"data-protection-text" : "We take your privacy seriously. Thus we do not collect any data at all. The password gets hashed and all data is encrypted before it is stored on the device.",</v>
+        <v>"daily-limit" : "Daily Limit",</v>
       </c>
       <c r="G22" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A22,""" : """,C22,""",")</f>
-        <v>"data-protection-text" : "Wir nehmen Ihre Privatsphäre ernst. Deshalb sammeln wir keine persönlichen Daten. Ihr Passwort wird mit einem Hash geschützt und alle Daten werden verschlüsselt bevor sie auf dem Gerät gespeichert werden.",</v>
+        <v>"daily-limit" : "Tageslimite",</v>
       </c>
       <c r="H22" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A22,""" : """,D22,""",")</f>
-        <v>"data-protection-text" : "Prendiamo il suo ambito privato sul serio. Per questo non raccogliamo dati personali. La sua parola d'acesso è sicurato con un hash e tutti i dati sono codificati prima di salvarli sul cellulare.",</v>
+        <v>"daily-limit" : "Limite quotidiana",</v>
       </c>
       <c r="I22" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A22,""" : """,E22,""",")</f>
-        <v>"data-protection-text" : "Nous prenons votre vie privée au sérieux. Pour cette raison nous n' acceuillons pas de données personnelles. Votre mot de passe vient chiffré avec un hash, et tous les données sont encodées avant d'être sauvegardées sur le mobile.",</v>
+        <v>"daily-limit" : "Limite quotidienne",</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F23" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A23,""" : """,B23,""",")</f>
-        <v>"date" : "Date",</v>
+        <v>"data-protection-header" : "Data Protection &amp; Privacy",</v>
       </c>
       <c r="G23" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A23,""" : """,C23,""",")</f>
-        <v>"date" : "Datum",</v>
+        <v>"data-protection-header" : "Datenschutz und Privatsphäre",</v>
       </c>
       <c r="H23" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A23,""" : """,D23,""",")</f>
-        <v>"date" : "Data",</v>
+        <v>"data-protection-header" : "Protezione dei dati personali e ambito privato",</v>
       </c>
       <c r="I23" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A23,""" : """,E23,""",")</f>
-        <v>"date" : "Date",</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"data-protection-header" : "Protéction des données et de la vie privée",</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
@@ -1994,19 +2079,19 @@
       </c>
       <c r="F24" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A24,""" : """,B24,""",")</f>
-        <v>"edit" : "Edit",</v>
+        <v>"data-protection-text" : "We take your privacy seriously. Thus we do not collect any data at all. The password gets hashed and all data is encrypted before it is stored on the device.",</v>
       </c>
       <c r="G24" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A24,""" : """,C24,""",")</f>
-        <v>"edit" : "Bearbeiten",</v>
+        <v>"data-protection-text" : "Wir nehmen Ihre Privatsphäre ernst. Deshalb sammeln wir keine persönlichen Daten. Ihr Passwort wird mit einem Hash geschützt und alle Daten werden verschlüsselt bevor sie auf dem Gerät gespeichert werden.",</v>
       </c>
       <c r="H24" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A24,""" : """,D24,""",")</f>
-        <v>"edit" : "Modificare",</v>
+        <v>"data-protection-text" : "Prendiamo il suo ambito privato sul serio. Per questo non raccogliamo dati personali. La sua parola d'acesso è sicurato con un hash e tutti i dati sono codificati prima di salvarli sul cellulare.",</v>
       </c>
       <c r="I24" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A24,""" : """,E24,""",")</f>
-        <v>"edit" : "Travailler",</v>
+        <v>"data-protection-text" : "Nous prenons votre vie privée au sérieux. Pour cette raison nous n' acceuillons pas de données personnelles. Votre mot de passe vient chiffré avec un hash, et tous les données sont encodées avant d'être sauvegardées sur le mobile.",</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,65 +2107,65 @@
       <c r="D25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>123</v>
+      <c r="E25" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F25" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A25,""" : """,B25,""",")</f>
-        <v>"enter-username-pwd" : "Please enter username 'test' and password 'test'!",</v>
+        <v>"date" : "Date",</v>
       </c>
       <c r="G25" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A25,""" : """,C25,""",")</f>
-        <v>"enter-username-pwd" : "Bitte Benutzername 'test' und Passwort 'test' eingeben!",</v>
+        <v>"date" : "Datum",</v>
       </c>
       <c r="H25" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A25,""" : """,D25,""",")</f>
-        <v>"enter-username-pwd" : "Pregasi immetere il nome dell utente 'test' e la parola d‘accesso 'test'!",</v>
+        <v>"date" : "Data",</v>
       </c>
       <c r="I25" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A25,""" : """,E25,""",")</f>
-        <v>"enter-username-pwd" : "Entrez le nom d‘utilisateur 'test' et le mot de passe 'test', s.v.p.!",</v>
+        <v>"date" : "Date",</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F26" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A26,""" : """,B26,""",")</f>
-        <v>"error" : "Error",</v>
+        <v>"edit" : "Edit",</v>
       </c>
       <c r="G26" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A26,""" : """,C26,""",")</f>
-        <v>"error" : "Fehler",</v>
+        <v>"edit" : "Bearbeiten",</v>
       </c>
       <c r="H26" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A26,""" : """,D26,""",")</f>
-        <v>"error" : "Errore",</v>
+        <v>"edit" : "Modificare",</v>
       </c>
       <c r="I26" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A26,""" : """,E26,""",")</f>
-        <v>"error" : "Erreur",</v>
+        <v>"edit" : "Travailler",</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>130</v>
@@ -2088,420 +2173,420 @@
       <c r="D27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>130</v>
+      <c r="E27" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="F27" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A27,""" : """,B27,""",")</f>
-        <v>"info" : "Information",</v>
+        <v>"enter-username-pwd" : "Please enter username 'test' and password 'test'!",</v>
       </c>
       <c r="G27" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A27,""" : """,C27,""",")</f>
-        <v>"info" : "Information",</v>
+        <v>"enter-username-pwd" : "Bitte Benutzername 'test' und Passwort 'test' eingeben!",</v>
       </c>
       <c r="H27" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A27,""" : """,D27,""",")</f>
-        <v>"info" : "Informazione",</v>
+        <v>"enter-username-pwd" : "Pregasi immetere il nome dell utente 'test' e la parola d‘accesso 'test'!",</v>
       </c>
       <c r="I27" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A27,""" : """,E27,""",")</f>
-        <v>"info" : "Information",</v>
+        <v>"enter-username-pwd" : "Entrez le nom d‘utilisateur 'test' et le mot de passe 'test', s.v.p.!",</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F28" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A28,""" : """,B28,""",")</f>
-        <v>"liechtenstein" : "Liechtenstein",</v>
+        <v>"error" : "Error",</v>
       </c>
       <c r="G28" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A28,""" : """,C28,""",")</f>
-        <v>"liechtenstein" : "Liechtenstein",</v>
+        <v>"error" : "Fehler",</v>
       </c>
       <c r="H28" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A28,""" : """,D28,""",")</f>
-        <v>"liechtenstein" : "Liechtenstein",</v>
+        <v>"error" : "Errore",</v>
       </c>
       <c r="I28" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A28,""" : """,E28,""",")</f>
-        <v>"liechtenstein" : "Liechtenstein",</v>
+        <v>"error" : "Erreur",</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F29" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A29,""" : """,B29,""",")</f>
-        <v>"limit" : "Limit",</v>
+        <v>"info" : "Information",</v>
       </c>
       <c r="G29" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A29,""" : """,C29,""",")</f>
-        <v>"limit" : "Limite",</v>
+        <v>"info" : "Information",</v>
       </c>
       <c r="H29" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A29,""" : """,D29,""",")</f>
-        <v>"limit" : "Limite",</v>
+        <v>"info" : "Informazione",</v>
       </c>
       <c r="I29" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A29,""" : """,E29,""",")</f>
-        <v>"limit" : "Limite",</v>
+        <v>"info" : "Information",</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F30" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A30,""" : """,B30,""",")</f>
-        <v>"lock-card" : "Lock Card",</v>
+        <v>"liechtenstein" : "Liechtenstein",</v>
       </c>
       <c r="G30" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A30,""" : """,C30,""",")</f>
-        <v>"lock-card" : "Karte sperren",</v>
+        <v>"liechtenstein" : "Liechtenstein",</v>
       </c>
       <c r="H30" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A30,""" : """,D30,""",")</f>
-        <v>"lock-card" : "Bloccare la carta",</v>
+        <v>"liechtenstein" : "Liechtenstein",</v>
       </c>
       <c r="I30" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A30,""" : """,E30,""",")</f>
-        <v>"lock-card" : "Bloquer la carte",</v>
+        <v>"liechtenstein" : "Liechtenstein",</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F31" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A31,""" : """,B31,""",")</f>
-        <v>"lock-unlock" : "Lock / Unlock",</v>
+        <v>"limit" : "Limit",</v>
       </c>
       <c r="G31" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A31,""" : """,C31,""",")</f>
-        <v>"lock-unlock" : "Sperren / Entsperren",</v>
+        <v>"limit" : "Limite",</v>
       </c>
       <c r="H31" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A31,""" : """,D31,""",")</f>
-        <v>"lock-unlock" : "Bloccare / Sbloccare",</v>
+        <v>"limit" : "Limite",</v>
       </c>
       <c r="I31" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A31,""" : """,E31,""",")</f>
-        <v>"lock-unlock" : "Bloquer / Débloquer",</v>
+        <v>"limit" : "Limite",</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F32" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A32,""" : """,B32,""",")</f>
-        <v>"login" : "Login",</v>
+        <v>"lock-card" : "Lock Card",</v>
       </c>
       <c r="G32" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A32,""" : """,C32,""",")</f>
-        <v>"login" : "Login",</v>
+        <v>"lock-card" : "Karte sperren",</v>
       </c>
       <c r="H32" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A32,""" : """,D32,""",")</f>
-        <v>"login" : "Login",</v>
+        <v>"lock-card" : "Bloccare la carta",</v>
       </c>
       <c r="I32" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A32,""" : """,E32,""",")</f>
-        <v>"login" : "Login",</v>
+        <v>"lock-card" : "Bloquer la carte",</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F33" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A33,""" : """,B33,""",")</f>
-        <v>"logout" : "Logout",</v>
+        <v>"lock-unlock" : "Lock / Unlock",</v>
       </c>
       <c r="G33" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A33,""" : """,C33,""",")</f>
-        <v>"logout" : "Logout",</v>
+        <v>"lock-unlock" : "Sperren / Entsperren",</v>
       </c>
       <c r="H33" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A33,""" : """,D33,""",")</f>
-        <v>"logout" : "Logout",</v>
+        <v>"lock-unlock" : "Bloccare / Sbloccare",</v>
       </c>
       <c r="I33" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A33,""" : """,E33,""",")</f>
-        <v>"logout" : "Logout",</v>
+        <v>"lock-unlock" : "Bloquer / Débloquer",</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F34" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A34,""" : """,B34,""",")</f>
-        <v>"mask-reset-success" : "Input mask successfully reset!",</v>
+        <v>"login" : "Login",</v>
       </c>
       <c r="G34" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A34,""" : """,C34,""",")</f>
-        <v>"mask-reset-success" : "Eingabemaske erfolgreich zurückgesetzt!",</v>
+        <v>"login" : "Login",</v>
       </c>
       <c r="H34" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A34,""" : """,D34,""",")</f>
-        <v>"mask-reset-success" : "Campi di input resettati con successo!",</v>
+        <v>"login" : "Login",</v>
       </c>
       <c r="I34" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A34,""" : """,E34,""",")</f>
-        <v>"mask-reset-success" : "Cadres réinitilisés avec succès!",</v>
+        <v>"login" : "Login",</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F35" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A35,""" : """,B35,""",")</f>
-        <v>"monthly-limit" : "Monthly Limit",</v>
+        <v>"logout" : "Logout",</v>
       </c>
       <c r="G35" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A35,""" : """,C35,""",")</f>
-        <v>"monthly-limit" : "Monatslimite",</v>
+        <v>"logout" : "Logout",</v>
       </c>
       <c r="H35" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A35,""" : """,D35,""",")</f>
-        <v>"monthly-limit" : "Limite mensile",</v>
+        <v>"logout" : "Logout",</v>
       </c>
       <c r="I35" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A35,""" : """,E35,""",")</f>
-        <v>"monthly-limit" : "Limite mensuelle",</v>
+        <v>"logout" : "Logout",</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>162</v>
+      <c r="D36" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F36" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A36,""" : """,B36,""",")</f>
-        <v>"mx-banklets" : "MX-Banklets",</v>
+        <v>"mask-reset-success" : "Input mask successfully reset!",</v>
       </c>
       <c r="G36" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A36,""" : """,C36,""",")</f>
-        <v>"mx-banklets" : "MX-Banklets",</v>
+        <v>"mask-reset-success" : "Eingabemaske erfolgreich zurückgesetzt!",</v>
       </c>
       <c r="H36" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A36,""" : """,D36,""",")</f>
-        <v>"mx-banklets" : "MX-Banklets",</v>
+        <v>"mask-reset-success" : "Campi di input resettati con successo!",</v>
       </c>
       <c r="I36" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A36,""" : """,E36,""",")</f>
-        <v>"mx-banklets" : "MX-Banklets",</v>
+        <v>"mask-reset-success" : "Cadres réinitilisés avec succès!",</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F37" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A37,""" : """,B37,""",")</f>
-        <v>"new-pin" : "New PIN",</v>
+        <v>"monthly-limit" : "Monthly Limit",</v>
       </c>
       <c r="G37" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A37,""" : """,C37,""",")</f>
-        <v>"new-pin" : "Neuer PIN",</v>
+        <v>"monthly-limit" : "Monatslimite",</v>
       </c>
       <c r="H37" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A37,""" : """,D37,""",")</f>
-        <v>"new-pin" : "Nuovo PIN",</v>
+        <v>"monthly-limit" : "Limite mensile",</v>
       </c>
       <c r="I37" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A37,""" : """,E37,""",")</f>
-        <v>"new-pin" : "Nouveau PIN",</v>
+        <v>"monthly-limit" : "Limite mensuelle",</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F38" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A38,""" : """,B38,""",")</f>
-        <v>"new-pin-request-success" : "New PIN successfully requested!",</v>
+        <v>"mx-banklets" : "MX-Banklets",</v>
       </c>
       <c r="G38" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A38,""" : """,C38,""",")</f>
-        <v>"new-pin-request-success" : "Neuer PIN erfolgreich beantragt!",</v>
+        <v>"mx-banklets" : "MX-Banklets",</v>
       </c>
       <c r="H38" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A38,""" : """,D38,""",")</f>
-        <v>"new-pin-request-success" : "Nuovo PIN richiesto con successo!",</v>
+        <v>"mx-banklets" : "MX-Banklets",</v>
       </c>
       <c r="I38" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A38,""" : """,E38,""",")</f>
-        <v>"new-pin-request-success" : "Un nouveau PIN a été demandé avec succès!",</v>
+        <v>"mx-banklets" : "MX-Banklets",</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F39" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A39,""" : """,B39,""",")</f>
-        <v>"no" : "No",</v>
+        <v>"new-pin" : "New PIN",</v>
       </c>
       <c r="G39" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A39,""" : """,C39,""",")</f>
-        <v>"no" : "Nein",</v>
+        <v>"new-pin" : "Neuer PIN",</v>
       </c>
       <c r="H39" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A39,""" : """,D39,""",")</f>
-        <v>"no" : "No",</v>
+        <v>"new-pin" : "Nuovo PIN",</v>
       </c>
       <c r="I39" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A39,""" : """,E39,""",")</f>
-        <v>"no" : "Non",</v>
+        <v>"new-pin" : "Nouveau PIN",</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,19 +2607,19 @@
       </c>
       <c r="F40" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A40,""" : """,B40,""",")</f>
-        <v>"no-changes-no-reset" : "No changes, nothing to undo.",</v>
+        <v>"new-pin-request-success" : "New PIN successfully requested!",</v>
       </c>
       <c r="G40" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A40,""" : """,C40,""",")</f>
-        <v>"no-changes-no-reset" : "Keine Änderungen, nichts zurückzusetzen.",</v>
+        <v>"new-pin-request-success" : "Neuer PIN erfolgreich beantragt!",</v>
       </c>
       <c r="H40" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A40,""" : """,D40,""",")</f>
-        <v>"no-changes-no-reset" : "Non ci sono modificazioni, niente da resettare.",</v>
+        <v>"new-pin-request-success" : "Nuovo PIN richiesto con successo!",</v>
       </c>
       <c r="I40" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A40,""" : """,E40,""",")</f>
-        <v>"no-changes-no-reset" : "Il n‘y a pas de modifications à réinitialiser.",</v>
+        <v>"new-pin-request-success" : "Un nouveau PIN a été demandé avec succès!",</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,232 +2633,232 @@
         <v>184</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="F41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,B41,""",")</f>
-        <v>"no-changes-no-save" : "No changes, nothing to save.",</v>
+        <v>"no" : "No",</v>
       </c>
       <c r="G41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,C41,""",")</f>
-        <v>"no-changes-no-save" : "Keine Änderungen, nichts zu speichern.",</v>
+        <v>"no" : "Nein",</v>
       </c>
       <c r="H41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,D41,""",")</f>
-        <v>"no-changes-no-save" : "Non ci sono modificazioni, niente da salvare.",</v>
+        <v>"no" : "No",</v>
       </c>
       <c r="I41" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A41,""" : """,E41,""",")</f>
-        <v>"no-changes-no-save" : "Il n‘y a pas de modifications à sauvegarder.",</v>
+        <v>"no" : "Non",</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,B42,""",")</f>
-        <v>"ok" : "OK",</v>
+        <v>"no-changes-no-reset" : "No changes, nothing to undo.",</v>
       </c>
       <c r="G42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,C42,""",")</f>
-        <v>"ok" : "OK",</v>
+        <v>"no-changes-no-reset" : "Keine Änderungen, nichts zurückzusetzen.",</v>
       </c>
       <c r="H42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,D42,""",")</f>
-        <v>"ok" : "OK",</v>
+        <v>"no-changes-no-reset" : "Non ci sono modificazioni, niente da resettare.",</v>
       </c>
       <c r="I42" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A42,""" : """,E42,""",")</f>
-        <v>"ok" : "OK",</v>
+        <v>"no-changes-no-reset" : "Il n‘y a pas de modifications à réinitialiser.",</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,B43,""",")</f>
-        <v>"order" : "Order",</v>
+        <v>"no-changes-no-save" : "No changes, nothing to save.",</v>
       </c>
       <c r="G43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,C43,""",")</f>
-        <v>"order" : "Bestellen",</v>
+        <v>"no-changes-no-save" : "Keine Änderungen, nichts zu speichern.",</v>
       </c>
       <c r="H43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,D43,""",")</f>
-        <v>"order" : "Ordinare",</v>
+        <v>"no-changes-no-save" : "Non ci sono modificazioni, niente da salvare.",</v>
       </c>
       <c r="I43" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A43,""" : """,E43,""",")</f>
-        <v>"order" : "Commander",</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"no-changes-no-save" : "Il n‘y a pas de modifications à sauvegarder.",</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,B44,""",")</f>
-        <v>"order-qr-payment" : "To order a QR payment, please provide account and amount!",</v>
+        <v>"ok" : "OK",</v>
       </c>
       <c r="G44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,C44,""",")</f>
-        <v>"order-qr-payment" : "Konto und Betrag müssen ausgefüllt sein, damit eine QR-Zahlung bestellt werden kann!",</v>
+        <v>"ok" : "OK",</v>
       </c>
       <c r="H44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,D44,""",")</f>
-        <v>"order-qr-payment" : "Si prega di mettere a disposizione il conto e il montante per potere ordinare il pagamento QR! ",</v>
+        <v>"ok" : "OK",</v>
       </c>
       <c r="I44" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A44,""" : """,E44,""",")</f>
-        <v>"order-qr-payment" : "Compte et montant doivent être remplis avant de commander un paiement QR!",</v>
+        <v>"ok" : "OK",</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="F45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,B45,""",")</f>
-        <v>"password" : "Password",</v>
+        <v>"order" : "Order",</v>
       </c>
       <c r="G45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,C45,""",")</f>
-        <v>"password" : "Passwort",</v>
+        <v>"order" : "Bestellen",</v>
       </c>
       <c r="H45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,D45,""",")</f>
-        <v>"password" : "Parola d'accesso",</v>
+        <v>"order" : "Ordinare",</v>
       </c>
       <c r="I45" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A45,""" : """,E45,""",")</f>
-        <v>"password" : "Mot de passe",</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"order" : "Commander",</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="F46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,B46,""",")</f>
-        <v>"qr-payment" : "QR Cash Withdrawal",</v>
+        <v>"order-qr-payment" : "To order a QR payment, please provide account and amount!",</v>
       </c>
       <c r="G46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,C46,""",")</f>
-        <v>"qr-payment" : "QR-Bargeldbezug",</v>
+        <v>"order-qr-payment" : "Konto und Betrag müssen ausgefüllt sein, damit eine QR-Zahlung bestellt werden kann!",</v>
       </c>
       <c r="H46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,D46,""",")</f>
-        <v>"qr-payment" : "Riferimento contante QR",</v>
+        <v>"order-qr-payment" : "Si prega di mettere a disposizione il conto e il montante per potere ordinare il pagamento QR! ",</v>
       </c>
       <c r="I46" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A46,""" : """,E46,""",")</f>
-        <v>"qr-payment" : "Retrait de liquide QR",</v>
+        <v>"order-qr-payment" : "Compte et montant doivent être remplis avant de commander un paiement QR!",</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="F47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,B47,""",")</f>
-        <v>"qr-payment-order-success" : "QR cash withdrawal successfully ordered!",</v>
+        <v>"overview" : "Overview",</v>
       </c>
       <c r="G47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,C47,""",")</f>
-        <v>"qr-payment-order-success" : "QR-Bargeldbezug erfolgreich bestellt!",</v>
+        <v>"overview" : "Übersicht",</v>
       </c>
       <c r="H47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,D47,""",")</f>
-        <v>"qr-payment-order-success" : "Riferimento contante QR è stato ordinato con successo.",</v>
+        <v>"overview" : "Il compendio",</v>
       </c>
       <c r="I47" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A47,""" : """,E47,""",")</f>
-        <v>"qr-payment-order-success" : "Retrait de liquide QR a été commandé avec succès!",</v>
+        <v>"overview" : "Vue d‘ensemble",</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>215</v>
@@ -2782,97 +2867,97 @@
         <v>216</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,B48,""",")</f>
-        <v>"quick-tour" : "Quick Tour",</v>
+        <v>"password" : "Password",</v>
       </c>
       <c r="G48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,C48,""",")</f>
-        <v>"quick-tour" : "Quick Tour",</v>
+        <v>"password" : "Passwort",</v>
       </c>
       <c r="H48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,D48,""",")</f>
-        <v>"quick-tour" : "Quick Tour (giro)",</v>
+        <v>"password" : "Parola d'accesso",</v>
       </c>
       <c r="I48" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A48,""" : """,E48,""",")</f>
-        <v>"quick-tour" : "Quick Tour",</v>
+        <v>"password" : "Mot de passe",</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,B49,""",")</f>
-        <v>"region-settings" : "Region Settings",</v>
+        <v>"qr-payment" : "QR Cash Withdrawal",</v>
       </c>
       <c r="G49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,C49,""",")</f>
-        <v>"region-settings" : "Regionenfreischaltung",</v>
+        <v>"qr-payment" : "QR-Bargeldbezug",</v>
       </c>
       <c r="H49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,D49,""",")</f>
-        <v>"region-settings" : "Selezione di regioni",</v>
+        <v>"qr-payment" : "Riferimento contante QR",</v>
       </c>
       <c r="I49" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A49,""" : """,E49,""",")</f>
-        <v>"region-settings" : "Sélection de régions",</v>
+        <v>"qr-payment" : "Retrait de liquide QR",</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="D50" s="4" t="s">
         <v>226</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="F50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,B50,""",")</f>
-        <v>"register" : "Register",</v>
+        <v>"qr-payment-order-success" : "QR cash withdrawal successfully ordered!",</v>
       </c>
       <c r="G50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,C50,""",")</f>
-        <v>"register" : "Registrieren",</v>
+        <v>"qr-payment-order-success" : "QR-Bargeldbezug erfolgreich bestellt!",</v>
       </c>
       <c r="H50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,D50,""",")</f>
-        <v>"register" : "Registrare",</v>
+        <v>"qr-payment-order-success" : "Riferimento contante QR è stato ordinato con successo.",</v>
       </c>
       <c r="I50" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A50,""" : """,E50,""",")</f>
-        <v>"register" : "Enregistrer",</v>
+        <v>"qr-payment-order-success" : "Retrait de liquide QR a été commandé avec succès!",</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>229</v>
@@ -2881,287 +2966,287 @@
         <v>230</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,B51,""",")</f>
-        <v>"request-new-pin" : "Request New PIN",</v>
+        <v>"quick-tour" : "Quick Tour",</v>
       </c>
       <c r="G51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,C51,""",")</f>
-        <v>"request-new-pin" : "Neuen PIN beantragen",</v>
+        <v>"quick-tour" : "Quick Tour",</v>
       </c>
       <c r="H51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,D51,""",")</f>
-        <v>"request-new-pin" : "Richiedere un nuovo PIN",</v>
+        <v>"quick-tour" : "Quick Tour (giro)",</v>
       </c>
       <c r="I51" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A51,""" : """,E51,""",")</f>
-        <v>"request-new-pin" : "Demander nouveau PIN",</v>
+        <v>"quick-tour" : "Quick Tour",</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="F52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,B52,""",")</f>
-        <v>"reset" : "Reset",</v>
+        <v>"region-settings" : "Region Settings",</v>
       </c>
       <c r="G52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,C52,""",")</f>
-        <v>"reset" : "Zurücksetzen",</v>
+        <v>"region-settings" : "Regionenfreischaltung",</v>
       </c>
       <c r="H52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,D52,""",")</f>
-        <v>"reset" : "Resettare",</v>
+        <v>"region-settings" : "Selezione di regioni",</v>
       </c>
       <c r="I52" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A52,""" : """,E52,""",")</f>
-        <v>"reset" : "Réinitialiser",</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"region-settings" : "Sélection de régions",</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="F53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,B53,""",")</f>
-        <v>"run-the-tour-" : "Run the Quick-Tour at any time later by selecting it from the menu.",</v>
+        <v>"register" : "Register",</v>
       </c>
       <c r="G53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,C53,""",")</f>
-        <v>"run-the-tour-" : "Sie können die Quick-Tour jederzeit später ausführen, indem Sie sie im Menü auswählen.",</v>
+        <v>"register" : "Registrieren",</v>
       </c>
       <c r="H53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,D53,""",")</f>
-        <v>"run-the-tour-" : "Si può sempre prendere il Quick-Tour più tardi, scegliandolo dal menu.",</v>
+        <v>"register" : "Registrare",</v>
       </c>
       <c r="I53" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A53,""" : """,E53,""",")</f>
-        <v>"run-the-tour-" : "Vour pouvez exécuter le Quick-Tour plus tard si vous le choisissez du menu.",</v>
+        <v>"register" : "Enregistrer",</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="F54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,B54,""",")</f>
-        <v>"save" : "Save",</v>
+        <v>"request-new-pin" : "Request New PIN",</v>
       </c>
       <c r="G54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,C54,""",")</f>
-        <v>"save" : "Speichern",</v>
+        <v>"request-new-pin" : "Neuen PIN beantragen",</v>
       </c>
       <c r="H54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,D54,""",")</f>
-        <v>"save" : "Salvare",</v>
+        <v>"request-new-pin" : "Richiedere un nuovo PIN",</v>
       </c>
       <c r="I54" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A54,""" : """,E54,""",")</f>
-        <v>"save" : "Sauvegarder",</v>
+        <v>"request-new-pin" : "Demander nouveau PIN",</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="F55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,B55,""",")</f>
-        <v>"select-lang" : "Select Language",</v>
+        <v>"reset" : "Reset",</v>
       </c>
       <c r="G55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,C55,""",")</f>
-        <v>"select-lang" : "Sprache wählen",</v>
+        <v>"reset" : "Zurücksetzen",</v>
       </c>
       <c r="H55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,D55,""",")</f>
-        <v>"select-lang" : "Scegli la lingua",</v>
+        <v>"reset" : "Resettare",</v>
       </c>
       <c r="I55" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A55,""" : """,E55,""",")</f>
-        <v>"select-lang" : "Choisissez la langue",</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"reset" : "Réinitialiser",</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="F56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,B56,""",")</f>
-        <v>"send" : "Send",</v>
+        <v>"run-the-tour-" : "Run the Quick-Tour at any time later by selecting it from the menu.",</v>
       </c>
       <c r="G56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,C56,""",")</f>
-        <v>"send" : "Abschicken",</v>
+        <v>"run-the-tour-" : "Sie können die Quick-Tour jederzeit später ausführen, indem Sie sie im Menü auswählen.",</v>
       </c>
       <c r="H56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,D56,""",")</f>
-        <v>"send" : "Spedire",</v>
+        <v>"run-the-tour-" : "Si può sempre prendere il Quick-Tour più tardi, scegliandolo dal menu.",</v>
       </c>
       <c r="I56" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A56,""" : """,E56,""",")</f>
-        <v>"send" : "Envoyer",</v>
+        <v>"run-the-tour-" : "Vour pouvez exécuter le Quick-Tour plus tard si vous le choisissez du menu.",</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="F57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,B57,""",")</f>
-        <v>"settings" : "Settings",</v>
+        <v>"save" : "Save",</v>
       </c>
       <c r="G57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,C57,""",")</f>
-        <v>"settings" : "Einstellungen",</v>
+        <v>"save" : "Speichern",</v>
       </c>
       <c r="H57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,D57,""",")</f>
-        <v>"settings" : "Regolazione",</v>
+        <v>"save" : "Salvare",</v>
       </c>
       <c r="I57" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A57,""" : """,E57,""",")</f>
-        <v>"settings" : "Paramètres",</v>
+        <v>"save" : "Sauvegarder",</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="F58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,B58,""",")</f>
-        <v>"settings-stored-success" : "Settings successfully stored!",</v>
+        <v>"select-card" : "Select Card",</v>
       </c>
       <c r="G58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,C58,""",")</f>
-        <v>"settings-stored-success" : "Die Einstellungen wurden erfolgreich gespeichert!",</v>
+        <v>"select-card" : "Karte wählen",</v>
       </c>
       <c r="H58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,D58,""",")</f>
-        <v>"settings-stored-success" : "La regulazione è stata salvata di successo!",</v>
+        <v>"select-card" : "Scegli la carta",</v>
       </c>
       <c r="I58" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A58,""" : """,E58,""",")</f>
-        <v>"settings-stored-success" : "Les paramètres ont étés sauvegardés aves succès!",</v>
+        <v>"select-card" : "Choisissez la carte",</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="F59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,B59,""",")</f>
-        <v>"show-confirmations" : "Confirmations",</v>
+        <v>"select-lang" : "Select Language",</v>
       </c>
       <c r="G59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,C59,""",")</f>
-        <v>"show-confirmations" : "Bestätigungsmeldungen",</v>
+        <v>"select-lang" : "Sprache wählen",</v>
       </c>
       <c r="H59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,D59,""",")</f>
-        <v>"show-confirmations" : "Confirmazioni",</v>
+        <v>"select-lang" : "Scegli la lingua",</v>
       </c>
       <c r="I59" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A59,""" : """,E59,""",")</f>
-        <v>"show-confirmations" : "Confirmations",</v>
+        <v>"select-lang" : "Choisissez la langue",</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,125 +3263,125 @@
         <v>274</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,B60,""",")</f>
-        <v>"show-notifications" : "Notifications",</v>
+        <v>"send" : "Send",</v>
       </c>
       <c r="G60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,C60,""",")</f>
-        <v>"show-notifications" : "Notifizierungen",</v>
+        <v>"send" : "Abschicken",</v>
       </c>
       <c r="H60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,D60,""",")</f>
-        <v>"show-notifications" : "Notificazioni",</v>
+        <v>"send" : "Spedire",</v>
       </c>
       <c r="I60" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A60,""" : """,E60,""",")</f>
-        <v>"show-notifications" : "Notifications",</v>
+        <v>"send" : "Envoyer",</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,B61,""",")</f>
-        <v>"start-the-tour" : "Start the tour…",</v>
+        <v>"settings" : "Settings",</v>
       </c>
       <c r="G61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,C61,""",")</f>
-        <v>"start-the-tour" : "Beginne die Tour…",</v>
+        <v>"settings" : "Einstellungen",</v>
       </c>
       <c r="H61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,D61,""",")</f>
-        <v>"start-the-tour" : "Incomincia il giro…",</v>
+        <v>"settings" : "Regolazione",</v>
       </c>
       <c r="I61" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A61,""" : """,E61,""",")</f>
-        <v>"start-the-tour" : "Commencez le tour…",</v>
+        <v>"settings" : "Paramètres",</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,B62,""",")</f>
-        <v>"success" : "Success",</v>
+        <v>"settings-stored-success" : "Settings successfully stored!",</v>
       </c>
       <c r="G62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,C62,""",")</f>
-        <v>"success" : "Erfolg",</v>
+        <v>"settings-stored-success" : "Die Einstellungen wurden erfolgreich gespeichert!",</v>
       </c>
       <c r="H62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,D62,""",")</f>
-        <v>"success" : "Successo",</v>
+        <v>"settings-stored-success" : "La regulazione è stata salvata di successo!",</v>
       </c>
       <c r="I62" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A62,""" : """,E62,""",")</f>
-        <v>"success" : "Succès",</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"settings-stored-success" : "Les paramètres ont étés sauvegardés aves succès!",</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="F63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,B63,""",")</f>
-        <v>"swipe-through-the-tour-" : "Swipe through the Quick-Tour to get an overview of MX-Banklets' features.",</v>
+        <v>"show-confirmations" : "Confirmations",</v>
       </c>
       <c r="G63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,C63,""",")</f>
-        <v>"swipe-through-the-tour-" : "Wischen Sie durch die Quick-Tour, um einen Überblick über die Features der MX-Banklets zu bekommen. ",</v>
+        <v>"show-confirmations" : "Bestätigungsmeldungen",</v>
       </c>
       <c r="H63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,D63,""",")</f>
-        <v>"swipe-through-the-tour-" : "Passa a traverso il Quick-Tour per ottenere uno sguardo d'insieme delle funzioni die MX-Banklets.",</v>
+        <v>"show-confirmations" : "Confirmazioni",</v>
       </c>
       <c r="I63" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A63,""" : """,E63,""",")</f>
-        <v>"swipe-through-the-tour-" : "Passez par le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"show-confirmations" : "Confirmations",</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>290</v>
       </c>
@@ -3310,31 +3395,31 @@
         <v>293</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,B64,""",")</f>
-        <v>"take-the-tour-" : "Take the Quick-Tour to get an overview of MX-Banklets' features.",</v>
+        <v>"show-notifications" : "Notifications",</v>
       </c>
       <c r="G64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,C64,""",")</f>
-        <v>"take-the-tour-" : "Nehmen Sie die Quick-Tour, um einen ersten Überblick über die Features von MX-Banklets zu erhalten.",</v>
+        <v>"show-notifications" : "Notifizierungen",</v>
       </c>
       <c r="H64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,D64,""",")</f>
-        <v>"take-the-tour-" : "Prenda il Quick-Tour per ottenere un primo sguardo sulle funzioni die MX-Banklets.",</v>
+        <v>"show-notifications" : "Notificazioni",</v>
       </c>
       <c r="I64" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A64,""" : """,E64,""",")</f>
-        <v>"take-the-tour-" : "Prenez le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
+        <v>"show-notifications" : "Notifications",</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>296</v>
@@ -3347,19 +3432,19 @@
       </c>
       <c r="F65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,B65,""",")</f>
-        <v>"text" : "Text",</v>
+        <v>"start-the-tour" : "Start the tour…",</v>
       </c>
       <c r="G65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,C65,""",")</f>
-        <v>"text" : "Text",</v>
+        <v>"start-the-tour" : "Beginne die Tour…",</v>
       </c>
       <c r="H65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,D65,""",")</f>
-        <v>"text" : "Denominazione",</v>
+        <v>"start-the-tour" : "Incomincia il giro…",</v>
       </c>
       <c r="I65" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A65,""" : """,E65,""",")</f>
-        <v>"text" : "Texte",</v>
+        <v>"start-the-tour" : "Commencez le tour…",</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,136 +3452,136 @@
         <v>299</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,B66,""",")</f>
-        <v>"to" : "to",</v>
+        <v>"success" : "Success",</v>
       </c>
       <c r="G66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,C66,""",")</f>
-        <v>"to" : "bis",</v>
+        <v>"success" : "Erfolg",</v>
       </c>
       <c r="H66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,D66,""",")</f>
-        <v>"to" : "Al",</v>
+        <v>"success" : "Successo",</v>
       </c>
       <c r="I66" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A66,""" : """,E66,""",")</f>
-        <v>"to" : "au",</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"success" : "Succès",</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F67" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A67,""" : """,B67,""",")</f>
-        <v>"type" : "Type",</v>
+        <v>"swipe-through-the-tour-" : "Swipe through the Quick-Tour to get an overview of MX-Banklets' features.",</v>
       </c>
       <c r="G67" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A67,""" : """,C67,""",")</f>
-        <v>"type" : "Typ",</v>
+        <v>"swipe-through-the-tour-" : "Wischen Sie durch die Quick-Tour, um einen Überblick über die Features der MX-Banklets zu bekommen. ",</v>
       </c>
       <c r="H67" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A67,""" : """,D67,""",")</f>
-        <v>"type" : "Tipo",</v>
+        <v>"swipe-through-the-tour-" : "Passa a traverso il Quick-Tour per ottenere uno sguardo d'insieme delle funzioni die MX-Banklets.",</v>
       </c>
       <c r="I67" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A67,""" : """,E67,""",")</f>
-        <v>"type" : "Type",</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>"swipe-through-the-tour-" : "Passez par le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F68" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A68,""" : """,B68,""",")</f>
-        <v>"unlock-card" : "Unlock Card",</v>
+        <v>"take-the-tour-" : "Take the Quick-Tour to get an overview of MX-Banklets' features.",</v>
       </c>
       <c r="G68" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A68,""" : """,C68,""",")</f>
-        <v>"unlock-card" : "Sperrung aufheben",</v>
+        <v>"take-the-tour-" : "Nehmen Sie die Quick-Tour, um einen ersten Überblick über die Features von MX-Banklets zu erhalten.",</v>
       </c>
       <c r="H68" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A68,""" : """,D68,""",")</f>
-        <v>"unlock-card" : "Sbloccare la carta",</v>
+        <v>"take-the-tour-" : "Prenda il Quick-Tour per ottenere un primo sguardo sulle funzioni die MX-Banklets.",</v>
       </c>
       <c r="I68" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A68,""" : """,E68,""",")</f>
-        <v>"unlock-card" : "Débloquer la carte",</v>
+        <v>"take-the-tour-" : "Prenez le Quick-Tour pour ramasser une vue d'ensemble des fonctions des MX-Banklets.",</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F69" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A69,""" : """,B69,""",")</f>
-        <v>"username" : "Username",</v>
+        <v>"text" : "Text",</v>
       </c>
       <c r="G69" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A69,""" : """,C69,""",")</f>
-        <v>"username" : "Benutzername",</v>
+        <v>"text" : "Text",</v>
       </c>
       <c r="H69" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A69,""" : """,D69,""",")</f>
-        <v>"username" : "Nome utente",</v>
+        <v>"text" : "Denominazione",</v>
       </c>
       <c r="I69" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A69,""" : """,E69,""",")</f>
-        <v>"username" : "Nom d'utilisateur",</v>
+        <v>"text" : "Texte",</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>318</v>
@@ -3507,24 +3592,24 @@
       <c r="D70" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="1" t="s">
         <v>321</v>
       </c>
       <c r="F70" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A70,""" : """,B70,""",")</f>
-        <v>"valid-from" : "Valid From",</v>
+        <v>"to" : "to",</v>
       </c>
       <c r="G70" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A70,""" : """,C70,""",")</f>
-        <v>"valid-from" : "Gültig von",</v>
+        <v>"to" : "bis",</v>
       </c>
       <c r="H70" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A70,""" : """,D70,""",")</f>
-        <v>"valid-from" : "Valido dal",</v>
+        <v>"to" : "Al",</v>
       </c>
       <c r="I70" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A70,""" : """,E70,""",")</f>
-        <v>"valid-from" : "Valable du",</v>
+        <v>"to" : "au",</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,134 +3620,310 @@
         <v>323</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F71" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A71,""" : """,B71,""",")</f>
-        <v>"version" : "Version",</v>
+        <v>"type" : "Type",</v>
       </c>
       <c r="G71" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A71,""" : """,C71,""",")</f>
-        <v>"version" : "Version",</v>
+        <v>"type" : "Typ",</v>
       </c>
       <c r="H71" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A71,""" : """,D71,""",")</f>
-        <v>"version" : "Versione",</v>
+        <v>"type" : "Tipo",</v>
       </c>
       <c r="I71" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A71,""" : """,E71,""",")</f>
-        <v>"version" : "Version",</v>
+        <v>"type" : "Type",</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F72" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A72,""" : """,B72,""",")</f>
-        <v>"warning" : "Warning",</v>
+        <v>"unlock-card" : "Unlock Card",</v>
       </c>
       <c r="G72" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A72,""" : """,C72,""",")</f>
-        <v>"warning" : "Achtung",</v>
+        <v>"unlock-card" : "Sperrung aufheben",</v>
       </c>
       <c r="H72" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A72,""" : """,D72,""",")</f>
-        <v>"warning" : "Attenzione",</v>
+        <v>"unlock-card" : "Sbloccare la carta",</v>
       </c>
       <c r="I72" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A72,""" : """,E72,""",")</f>
-        <v>"warning" : "Attention",</v>
+        <v>"unlock-card" : "Débloquer la carte",</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F73" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A73,""" : """,B73,""",")</f>
-        <v>"yes" : "Yes",</v>
+        <v>"username" : "Username",</v>
       </c>
       <c r="G73" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A73,""" : """,C73,""",")</f>
-        <v>"yes" : "Ja",</v>
+        <v>"username" : "Benutzername",</v>
       </c>
       <c r="H73" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A73,""" : """,D73,""",")</f>
-        <v>"yes" : "Sì",</v>
+        <v>"username" : "Nome utente",</v>
       </c>
       <c r="I73" s="1" t="str">
         <f aca="false">CONCATENATE("""",$A73,""" : """,E73,""",")</f>
+        <v>"username" : "Nom d'utilisateur",</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A74,""" : """,B74,""",")</f>
+        <v>"valid-from" : "Valid From",</v>
+      </c>
+      <c r="G74" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A74,""" : """,C74,""",")</f>
+        <v>"valid-from" : "Gültig von",</v>
+      </c>
+      <c r="H74" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A74,""" : """,D74,""",")</f>
+        <v>"valid-from" : "Valido dal",</v>
+      </c>
+      <c r="I74" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A74,""" : """,E74,""",")</f>
+        <v>"valid-from" : "Valable du",</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A75,""" : """,B75,""",")</f>
+        <v>"valid-from-to" : "Valid from...to",</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A75,""" : """,C75,""",")</f>
+        <v>"valid-from-to" : "Gültig von...bis",</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A75,""" : """,D75,""",")</f>
+        <v>"valid-from-to" : "Valido dal...al",</v>
+      </c>
+      <c r="I75" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A75,""" : """,E75,""",")</f>
+        <v>"valid-from-to" : "Valable du...au",</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A76,""" : """,B76,""",")</f>
+        <v>"version" : "Version",</v>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A76,""" : """,C76,""",")</f>
+        <v>"version" : "Version",</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A76,""" : """,D76,""",")</f>
+        <v>"version" : "Versione",</v>
+      </c>
+      <c r="I76" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A76,""" : """,E76,""",")</f>
+        <v>"version" : "Version",</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A77,""" : """,B77,""",")</f>
+        <v>"warning" : "Warning",</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A77,""" : """,C77,""",")</f>
+        <v>"warning" : "Achtung",</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A77,""" : """,D77,""",")</f>
+        <v>"warning" : "Attenzione",</v>
+      </c>
+      <c r="I77" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A77,""" : """,E77,""",")</f>
+        <v>"warning" : "Attention",</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A78,""" : """,B78,""",")</f>
+        <v>"what-do-you-want-to-do" : "What would you like to do?",</v>
+      </c>
+      <c r="G78" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A78,""" : """,C78,""",")</f>
+        <v>"what-do-you-want-to-do" : "Was möchten Sie tun?",</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A78,""" : """,D78,""",")</f>
+        <v>"what-do-you-want-to-do" : "Cosa vuole fare?",</v>
+      </c>
+      <c r="I78" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A78,""" : """,E78,""",")</f>
+        <v>"what-do-you-want-to-do" : "Qu'est-ce que vous voulez faire?",</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A79,""" : """,B79,""",")</f>
+        <v>"yes" : "Yes",</v>
+      </c>
+      <c r="G79" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A79,""" : """,C79,""",")</f>
+        <v>"yes" : "Ja",</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A79,""" : """,D79,""",")</f>
+        <v>"yes" : "Sì",</v>
+      </c>
+      <c r="I79" s="1" t="str">
+        <f aca="false">CONCATENATE("""",$A79,""" : """,E79,""",")</f>
         <v>"yes" : "Oui",</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="75" s="5" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="81" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
